--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74127074-03B5-459E-8251-7CAF2302C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD249C0E-9A3B-4880-8B6E-25CD8ADAF126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -937,6 +937,9 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Unclear</t>
+  </si>
+  <si>
     <t>6601.HK</t>
   </si>
   <si>
@@ -950,9 +953,6 @@
   </si>
   <si>
     <t>CN</t>
-  </si>
-  <si>
-    <t>Unclear</t>
   </si>
   <si>
     <t>Avg</t>
@@ -1514,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2149,6 +2149,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3574,29 +3575,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3612,23 +3613,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3636,15 +3638,15 @@
         <v>1333333500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3668,15 +3670,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
         <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4222,7 +4224,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7622093308630671E-2</v>
+        <v>7.9702301845927647E-3</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4709,11 +4711,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4727,10 +4729,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4925,7 +4927,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4961,8 +4963,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5005,17 +5007,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.87</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5025,40 +5027,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>2493.3336450000002</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>19706.668773961545</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5081,11 +5083,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5105,7 +5107,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5272,7 +5274,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.76725752666097502</v>
+        <v>6.5096689628755815</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5288,7 +5290,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>2.6011720398773835E-2</v>
+        <v>3.0658530212792777E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5322,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.7622093308630671E-2</v>
+        <v>7.9702301845927647E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5339,10 +5341,10 @@
       <c r="F28" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="G28" s="270" t="s">
+      <c r="G28" s="271" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="270"/>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5350,22 +5352,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3047629124137929</v>
+        <v>1.0724975619177752</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2196771315829777</v>
+        <v>1.7969394993743084</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5350151910750505</v>
-      </c>
-      <c r="G29" s="271">
+        <v>1.2617618375503241</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.930154027463459</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>1.5625560864124421</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6396,12 +6398,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -10462,11 +10461,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2129333.7297364273</v>
+        <v>1961637.9208381264</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29662096364129154</v>
+        <v>0.35201562292698341</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10487,7 +10486,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7143120168725039</v>
+        <v>1.4712282567250627</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11533,7 +11532,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11553,11 +11552,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>6.5096689628755815</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>3990</v>
+        <v>25973.579161873571</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11589,11 +11588,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11604,11 +11603,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11620,11 +11619,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11838,19 +11837,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11860,18 +11859,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12238,17 +12237,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6011720398773835E-2</v>
+        <v>3.0658530212792777E-3</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6011720398773835E-2</v>
+        <v>3.0658530212792777E-3</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6011720398773835E-2</v>
+        <v>3.0658530212792777E-3</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12289,17 +12288,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7622093308630671E-2</v>
+        <v>7.9702301845927647E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7622093308630671E-2</v>
+        <v>7.9702301845927647E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7622093308630671E-2</v>
+        <v>7.9702301845927647E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12330,15 +12329,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12359,14 +12358,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.76813896609804966</v>
+        <v>0.6390583168203291</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.76813896609804966</v>
+        <v>0.6390583168203291</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12384,14 +12383,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.4360459903246228</v>
+        <v>1.7023596712453686</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.4360459903246228</v>
+        <v>1.7023596712453686</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12434,21 +12433,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>509201.16154351342</v>
+        <v>423633.28978342318</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.38190082342003212</v>
+        <v>0.31772492762195143</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.38190082342003212</v>
+        <v>0.31772492762195143</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54258260927115765</v>
+        <v>0.45140520702675579</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12458,14 +12457,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4283.0961358547211</v>
+        <v>25973.579161873571</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2123217003508283E-3</v>
+        <v>1.9480181936382436E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12476,17 +12475,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2133616.825872282</v>
+        <v>1987611.5</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3601805564710101</v>
+        <v>1.2671021728622283</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.600212419377659</v>
+        <v>1.4907084386614451</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12497,27 +12496,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2638534.8912799405</v>
+        <v>2385271.2106215497</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5800522411974134</v>
+        <v>1.4255775437302947</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7388690581906914</v>
+        <v>1.5653469185477973</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8588849896440158</v>
+        <v>1.6771500514474056</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9789009210973403</v>
+        <v>1.7889531843470141</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1395827069484659</v>
+        <v>1.9226334637518185</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12558,27 +12557,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1614860.7251990126</v>
+        <v>1128498.3059332604</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0294735836301725</v>
+        <v>0.71941758010525603</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2111453925060853</v>
+        <v>0.84637362365324242</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2111453925060853</v>
+        <v>0.84637362365324242</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2111453925060853</v>
+        <v>0.84637362365324242</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7207253479784521</v>
+        <v>1.2024787090730658</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12619,27 +12618,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1966676.5462990555</v>
+        <v>1607813.8957774048</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3047629124137929</v>
+        <v>1.0724975619177752</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4750072253483884</v>
+        <v>1.2058602711005197</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5350151910750505</v>
+        <v>1.2617618375503241</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5950231568017128</v>
+        <v>1.3176634040001283</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.930154027463459</v>
+        <v>1.5625560864124421</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD249C0E-9A3B-4880-8B6E-25CD8ADAF126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05857E25-48DE-4E55-A377-594452F50104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -938,6 +935,10 @@
   </si>
   <si>
     <t>Unclear</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>6601.HK</t>
@@ -1514,7 +1515,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2150,6 +2151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3578,12 +3582,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3624,7 +3628,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>263</v>
@@ -3632,7 +3636,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>1333333500</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>264</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3672,7 +3676,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>265</v>
@@ -3689,55 +3693,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3886,7 +3890,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>1003</v>
@@ -4202,7 +4206,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0.1178</v>
@@ -4220,11 +4224,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9702301845927647E-3</v>
+        <v>6.6564666748046869E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4269,13 +4273,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4673,7 +4677,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>3023302</v>
@@ -4693,7 +4697,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4701,7 +4705,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4711,16 +4715,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4729,10 +4733,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4781,7 +4785,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4802,7 +4806,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4820,7 +4824,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4877,7 +4881,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4964,7 +4968,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5005,19 +5009,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>1.9</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5025,42 +5029,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>19706.668773961545</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>2533.33365</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5083,16 +5087,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5107,7 +5111,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736236572265625</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5117,40 +5121,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5163,29 +5167,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5195,12 +5199,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5210,7 +5214,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5218,7 +5222,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5232,7 +5236,7 @@
         <v>0.55541924442229906</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5240,7 +5244,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5251,14 +5255,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.8148224946381651E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5270,11 +5274,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>6.5096689628755815</v>
+        <v>0.77944595224973456</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5286,16 +5290,16 @@
         <v>6.208277497005729E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.0658530212792777E-3</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>39.054921702281248</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5318,11 +5322,11 @@
         <v>4.9862433731434744E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.9702301845927647E-3</v>
+        <v>6.6564666748046869E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5339,12 +5343,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5352,42 +5356,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.0724975619177752</v>
+        <v>1.3020986793853644</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.7969394993743084</v>
+        <v>2.2145114153343521</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2617618375503241</v>
-      </c>
-      <c r="G29" s="272">
+        <v>1.5318807992768995</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5625560864124421</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>1.925662100290741</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5397,7 +5401,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5408,14 +5412,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5425,7 +5429,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5435,14 +5439,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5452,7 +5456,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5467,14 +5471,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6459,16 +6463,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6486,7 +6490,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6519,7 +6523,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6886,7 +6890,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6937,7 +6941,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6988,7 +6992,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7039,7 +7043,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7141,7 +7145,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7294,7 +7298,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8365,7 +8369,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8434,7 +8438,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8638,7 +8642,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10461,11 +10465,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>1961637.9208381264</v>
+        <v>2129662.9693832397</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.35201562292698341</v>
+        <v>0.29651220649238996</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10486,7 +10490,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.4712282567250627</v>
+        <v>1.7148421950316366</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10536,7 +10540,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11532,7 +11536,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11552,11 +11556,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>6.5096689628755815</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>25973.579161873571</v>
+        <v>3990</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11588,11 +11592,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11603,11 +11607,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11619,11 +11623,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11837,19 +11841,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11859,18 +11863,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11947,7 +11951,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12007,7 +12011,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12070,7 +12074,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12100,7 +12104,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12233,28 +12237,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0658530212792777E-3</v>
+        <v>2.5604967476905442E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0658530212792777E-3</v>
+        <v>2.5604967476905442E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0658530212792777E-3</v>
+        <v>2.5604967476905442E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12284,21 +12288,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9702301845927647E-3</v>
+        <v>6.6564666748046869E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9702301845927647E-3</v>
+        <v>6.6564666748046869E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9702301845927647E-3</v>
+        <v>6.6564666748046869E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12329,15 +12333,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12354,24 +12358,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.6390583168203291</v>
+        <v>0.76673609983319635</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.6390583168203291</v>
+        <v>0.76673609983319635</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12379,18 +12383,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>1.7023596712453686</v>
+        <v>2.424380754525314</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>1.7023596712453686</v>
+        <v>2.424380754525314</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12409,14 +12413,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12433,21 +12437,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>423633.28978342318</v>
+        <v>508271.19813444151</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.31772492762195143</v>
+        <v>0.38120335095041225</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.31772492762195143</v>
+        <v>0.38120335095041225</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.45140520702675579</v>
+        <v>0.54159168071260633</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12457,14 +12461,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>25973.579161873571</v>
+        <v>4283.7583923339844</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.9480181936382436E-2</v>
+        <v>3.2128183926481892E-3</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12475,17 +12479,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>1987611.5</v>
+        <v>2133946.7277755737</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.2671021728622283</v>
+        <v>1.3603908689080697</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.4907084386614451</v>
+        <v>1.6004598457741996</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12496,27 +12500,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2385271.2106215497</v>
+        <v>2637934.1675176811</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4255775437302947</v>
+        <v>1.5796535064140638</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.5653469185477973</v>
+        <v>1.7383814014658339</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6771500514474056</v>
+        <v>1.8584158898988987</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.7889531843470141</v>
+        <v>1.9784503783319636</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.9226334637518185</v>
+        <v>2.1388387080941578</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12533,14 +12537,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12557,27 +12561,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1128498.3059332604</v>
+        <v>1607127.8124308188</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.71941758010525603</v>
+        <v>1.0245438523566652</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.84637362365324242</v>
+        <v>1.2053457086549004</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.84637362365324242</v>
+        <v>1.2053457086549004</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.84637362365324242</v>
+        <v>1.2053457086549004</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.2024787090730658</v>
+        <v>1.7124854924873243</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12587,21 +12591,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12614,31 +12618,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1607813.8957774048</v>
+        <v>1962484.985391082</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.0724975619177752</v>
+        <v>1.3020986793853644</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2058602711005197</v>
+        <v>1.4718635550603671</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.2617618375503241</v>
+        <v>1.5318807992768995</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.3176634040001283</v>
+        <v>1.591898043493432</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5625560864124421</v>
+        <v>1.925662100290741</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05857E25-48DE-4E55-A377-594452F50104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1870012-54D3-40E0-BC8B-771663EDE4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -957,6 +954,10 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3582,28 +3583,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3611,7 +3612,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3619,24 +3620,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>1333333500</v>
@@ -3644,15 +3645,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3660,7 +3661,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3668,7 +3669,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3676,15 +3677,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3693,61 +3694,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3796,7 +3797,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>1615585</v>
@@ -3822,7 +3823,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>897327</v>
@@ -3848,7 +3849,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>613104</v>
@@ -3874,7 +3875,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3890,7 +3891,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>1003</v>
@@ -3916,7 +3917,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>2199</v>
@@ -3936,7 +3937,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <v>-169280</v>
@@ -3956,7 +3957,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>35974</v>
@@ -3976,7 +3977,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>15312</v>
@@ -3996,7 +3997,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -4012,7 +4013,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4028,7 +4029,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4044,7 +4045,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4068,7 +4069,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4092,7 +4093,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4116,7 +4117,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4140,7 +4141,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4164,7 +4165,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4188,7 +4189,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4206,7 +4207,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0.1178</v>
@@ -4224,11 +4225,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6564666748046869E-2</v>
+        <v>6.5771770700812346E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4273,21 +4274,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>2385307</v>
@@ -4299,7 +4300,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59">
         <v>0</v>
@@ -4311,7 +4312,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>180994</v>
@@ -4324,7 +4325,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>0</v>
@@ -4336,7 +4337,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <v>253051</v>
@@ -4348,7 +4349,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4361,7 +4362,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>158110</v>
@@ -4386,7 +4387,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -4396,12 +4397,12 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -4410,12 +4411,12 @@
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59">
         <v>5912</v>
@@ -4428,7 +4429,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120">
         <v>0</v>
@@ -4441,7 +4442,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59">
         <v>279425</v>
@@ -4454,7 +4455,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59">
         <v>126127</v>
@@ -4467,7 +4468,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -4480,7 +4481,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4493,7 +4494,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>1500</v>
@@ -4514,12 +4515,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -4528,12 +4529,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -4543,12 +4544,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>193915</v>
@@ -4561,7 +4562,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4574,7 +4575,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>9704</v>
@@ -4586,7 +4587,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>76124</v>
@@ -4599,7 +4600,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4609,13 +4610,13 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59">
         <v>13416</v>
@@ -4623,19 +4624,19 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>611931</v>
@@ -4643,13 +4644,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>20583</v>
@@ -4657,19 +4658,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>30946</v>
@@ -4677,7 +4678,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>3023302</v>
@@ -4685,19 +4686,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4705,15 +4706,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4721,10 +4722,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4734,19 +4735,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4764,7 +4765,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4785,7 +4786,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4806,7 +4807,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4824,7 +4825,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4845,7 +4846,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4863,7 +4864,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4881,7 +4882,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -5021,15 +5022,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -5038,7 +5039,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -5049,7 +5050,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -5058,11 +5059,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>2533.33365</v>
+        <v>2560.0003200000001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5070,7 +5071,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5085,7 +5086,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5096,7 +5097,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5108,10 +5109,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736236572265625</v>
+        <v>1.0720016956329346</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5121,40 +5122,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5167,29 +5168,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5199,12 +5200,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5214,29 +5215,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.55541924442229906</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5244,7 +5245,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5255,58 +5256,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.8148224946381651E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.77944595224973456</v>
+        <v>0.78884237883193908</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>6.208277497005729E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.054921702281248</v>
+        <v>39.525739086591244</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>1.2789175437999239E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5315,61 +5316,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>4.9862433731434744E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6564666748046869E-2</v>
+        <v>6.5771770700812346E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3020986793853644</v>
+        <v>1.2979927200312489</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2145114153343521</v>
+        <v>2.2070546517489893</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5318807992768995</v>
+        <v>1.5270502588602928</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.925662100290741</v>
+        <v>1.9191779580425994</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5377,21 +5378,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5401,7 +5402,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5412,14 +5413,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5429,7 +5430,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5439,14 +5440,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5456,7 +5457,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5471,14 +5472,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6458,21 +6459,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6483,14 +6484,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6512,7 +6513,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6523,7 +6524,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6534,7 +6535,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6584,7 +6585,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6635,7 +6636,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6686,7 +6687,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6737,7 +6738,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6788,7 +6789,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6839,7 +6840,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6890,7 +6891,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6941,7 +6942,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6992,7 +6993,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7043,7 +7044,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7094,7 +7095,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7145,7 +7146,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7196,7 +7197,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7247,7 +7248,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7298,7 +7299,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7349,7 +7350,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7400,7 +7401,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7451,7 +7452,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7502,7 +7503,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7553,7 +7554,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7604,7 +7605,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7655,7 +7656,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7706,7 +7707,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7757,7 +7758,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7808,7 +7809,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7859,7 +7860,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7910,7 +7911,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7961,7 +7962,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -8012,7 +8013,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8063,7 +8064,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8114,7 +8115,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8165,7 +8166,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8216,7 +8217,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8267,7 +8268,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8318,7 +8319,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8369,7 +8370,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8387,7 +8388,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8438,7 +8439,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8489,7 +8490,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8540,7 +8541,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8591,7 +8592,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8642,7 +8643,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8693,7 +8694,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8744,7 +8745,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8762,7 +8763,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8813,7 +8814,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8864,7 +8865,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8881,7 +8882,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8931,7 +8932,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8981,7 +8982,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -9031,7 +9032,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10390,7 +10391,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10400,12 +10401,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10419,7 +10420,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10429,7 +10430,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10447,10 +10448,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10460,21 +10461,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2129662.9693832397</v>
+        <v>2126445.6114939451</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29651220649238996</v>
+        <v>0.29757499062067849</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10485,19 +10486,19 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7148421950316366</v>
+        <v>1.709664762186446</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10515,7 +10516,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10534,32 +10535,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10576,7 +10577,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10587,7 +10588,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10604,7 +10605,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10615,7 +10616,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10632,7 +10633,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10643,7 +10644,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10660,7 +10661,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10671,7 +10672,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10688,7 +10689,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10698,7 +10699,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10720,7 +10721,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10742,7 +10743,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10763,7 +10764,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10788,7 +10789,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10815,7 +10816,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10836,7 +10837,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10853,7 +10854,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10865,13 +10866,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10893,7 +10894,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10913,7 +10914,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10922,7 +10923,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10942,7 +10943,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10955,7 +10956,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10975,7 +10976,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10988,7 +10989,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -11005,7 +11006,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -11021,7 +11022,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11030,7 +11031,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11046,7 +11047,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11056,7 +11057,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11073,7 +11074,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11083,7 +11084,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11100,7 +11101,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11110,7 +11111,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11130,7 +11131,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11140,7 +11141,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11157,7 +11158,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11167,7 +11168,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11193,7 +11194,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11220,7 +11221,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11247,7 +11248,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11268,7 +11269,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11289,7 +11290,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11310,7 +11311,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11331,7 +11332,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11348,7 +11349,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11366,7 +11367,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11385,7 +11386,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11404,7 +11405,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11421,7 +11422,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11434,7 +11435,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11451,7 +11452,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11464,7 +11465,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11481,7 +11482,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11491,7 +11492,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11508,7 +11509,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11524,14 +11525,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11543,12 +11544,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11578,7 +11579,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11589,7 +11590,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11604,7 +11605,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11615,12 +11616,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11644,11 +11645,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11658,7 +11659,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11679,7 +11680,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11700,7 +11701,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11721,7 +11722,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11736,7 +11737,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11767,11 +11768,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11781,7 +11782,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11802,7 +11803,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11817,7 +11818,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11839,7 +11840,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11847,15 +11848,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11864,22 +11865,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11900,7 +11901,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11930,7 +11931,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11951,7 +11952,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11981,7 +11982,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12011,7 +12012,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12042,7 +12043,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12069,12 +12070,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12104,7 +12105,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12134,7 +12135,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12164,7 +12165,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12185,7 +12186,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12216,7 +12217,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12237,28 +12238,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5604967476905442E-2</v>
+        <v>2.5299969668100174E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5604967476905442E-2</v>
+        <v>2.5299969668100174E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5604967476905442E-2</v>
+        <v>2.5299969668100174E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12288,21 +12289,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6564666748046869E-2</v>
+        <v>6.5771770700812346E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6564666748046869E-2</v>
+        <v>6.5771770700812346E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6564666748046869E-2</v>
+        <v>6.5771770700812346E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12319,27 +12320,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12358,24 +12359,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.76673609983319635</v>
+        <v>0.76444009080077902</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.76673609983319635</v>
+        <v>0.76444009080077902</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12383,18 +12384,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.424380754525314</v>
+        <v>2.4117335802226894</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.424380754525314</v>
+        <v>2.4117335802226894</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12413,114 +12414,114 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>508271.19813444151</v>
+        <v>506749.16824425088</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.38120335095041225</v>
+        <v>0.38006182867545957</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.38120335095041225</v>
+        <v>0.38006182867545957</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54159168071260633</v>
+        <v>0.53996987186459622</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4283.7583923339844</v>
+        <v>4277.2867655754089</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2128183926481892E-3</v>
+        <v>3.2079646731859725E-3</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2133946.7277755737</v>
+        <v>2130722.8982595205</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3603908689080697</v>
+        <v>1.3583356778484845</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.6004598457741996</v>
+        <v>1.5980419739393936</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2637934.1675176811</v>
+        <v>2633194.7797381962</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5796535064140638</v>
+        <v>1.5767862864117808</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7383814014658339</v>
+        <v>1.7351895418507581</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8584158898988987</v>
+        <v>1.8550426898962127</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9784503783319636</v>
+        <v>1.9748958379416675</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1388387080941578</v>
+        <v>2.1348038811308037</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12530,58 +12531,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1607127.8124308188</v>
+        <v>1598743.9702754689</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0245438523566652</v>
+        <v>1.019199153650717</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2053457086549004</v>
+        <v>1.1990578278243731</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2053457086549004</v>
+        <v>1.1990578278243731</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2053457086549004</v>
+        <v>1.1990578278243731</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7124854924873243</v>
+        <v>1.7035520349543949</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12591,58 +12592,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1962484.985391082</v>
+        <v>1956165.1576373684</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3020986793853644</v>
+        <v>1.2979927200312489</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4718635550603671</v>
+        <v>1.4671236848375657</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5318807992768995</v>
+        <v>1.5270502588602928</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.591898043493432</v>
+        <v>1.5869768328830203</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.925662100290741</v>
+        <v>1.9191779580425994</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12651,7 +12652,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1870012-54D3-40E0-BC8B-771663EDE4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C55DA1-0BFD-46C5-9500-EE99B34B2A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5771770700812346E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4932,7 +4932,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>2560.0003200000001</v>
+        <v>2586.6669900000002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5112,7 +5112,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0720016956329346</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78884237883193908</v>
+        <v>0.79676219782188029</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.525739086591244</v>
+        <v>39.922569565543164</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5771770700812346E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5357,20 +5357,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2979927200312489</v>
+        <v>1.2967172864218233</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2070546517489893</v>
+        <v>2.2044956081991796</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5270502588602928</v>
+        <v>1.5255497487315568</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9191779580425994</v>
+        <v>1.9169527027818956</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10466,11 +10466,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2126445.6114939451</v>
+        <v>2127239.034114202</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29757499062067849</v>
+        <v>0.29731290073299765</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10491,7 +10491,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.709664762186446</v>
+        <v>1.710940825637334</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12242,17 +12242,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5299969668100174E-2</v>
+        <v>2.504848788248068E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5299969668100174E-2</v>
+        <v>2.504848788248068E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5299969668100174E-2</v>
+        <v>2.504848788248068E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12293,17 +12293,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5771770700812346E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5771770700812346E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5771770700812346E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12363,14 +12363,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.76444009080077902</v>
+        <v>0.76378793480462326</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.76444009080077902</v>
+        <v>0.76378793480462326</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.4117335802226894</v>
+        <v>2.4052426679550201</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.4117335802226894</v>
+        <v>2.4052426679550201</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12438,21 +12438,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>506749.16824425088</v>
+        <v>506316.85247144621</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.38006182867545957</v>
+        <v>0.37973759188638567</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.38006182867545957</v>
+        <v>0.37973759188638567</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.53996987186459622</v>
+        <v>0.53950921498131965</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12462,14 +12462,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4277.2867655754089</v>
+        <v>4278.8827133178711</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2079646731859725E-3</v>
+        <v>3.2091616338431992E-3</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12480,17 +12480,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2130722.8982595205</v>
+        <v>2131517.9168275199</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3583356778484845</v>
+        <v>1.358842502122231</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5980419739393936</v>
+        <v>1.5986382377908601</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2633194.7797381962</v>
+        <v>2633555.8865856482</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5767862864117808</v>
+        <v>1.5769784801777247</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7351895418507581</v>
+        <v>1.7353709323747735</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8550426898962127</v>
+        <v>1.855268800209088</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9748958379416675</v>
+        <v>1.9751666680434026</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1348038811308037</v>
+        <v>2.1349382911383366</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12562,27 +12562,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1598743.9702754689</v>
+        <v>1594441.1289771502</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.019199153650717</v>
+        <v>1.0164560926659216</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1990578278243731</v>
+        <v>1.1958306972540256</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1990578278243731</v>
+        <v>1.1958306972540256</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1990578278243731</v>
+        <v>1.1958306972540256</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7035520349543949</v>
+        <v>1.6989671144254543</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12623,27 +12623,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1956165.1576373684</v>
+        <v>1954134.6640193353</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2979927200312489</v>
+        <v>1.2967172864218233</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4671236848375657</v>
+        <v>1.4656008148143995</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5270502588602928</v>
+        <v>1.5255497487315568</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5869768328830203</v>
+        <v>1.5854986826487141</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9191779580425994</v>
+        <v>1.9169527027818956</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C55DA1-0BFD-46C5-9500-EE99B34B2A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1003531-E68C-4AF4-BA27-A77D8948A2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5117999073566038E-2</v>
+        <v>6.5124072246125486E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5112,7 +5112,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.79676219782188029</v>
+        <v>0.79668789543031726</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.922569565543164</v>
+        <v>39.918846569642795</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5117999073566038E-2</v>
+        <v>6.5124072246125486E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5357,20 +5357,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2967172864218233</v>
+        <v>1.2968545536321594</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2044956081991796</v>
+        <v>2.2047325977791195</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5255497487315568</v>
+        <v>1.5257112395672463</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9169527027818956</v>
+        <v>1.9171587806774952</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10466,11 +10466,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2127239.034114202</v>
+        <v>2127437.4291802845</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29731290073299765</v>
+        <v>0.29724736524250572</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10491,7 +10491,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.710940825637334</v>
+        <v>1.711259979283549</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12242,17 +12242,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.504848788248068E-2</v>
+        <v>2.5050824007537158E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.504848788248068E-2</v>
+        <v>2.5050824007537158E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.504848788248068E-2</v>
+        <v>2.5050824007537158E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12293,17 +12293,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5117999073566038E-2</v>
+        <v>6.5124072246125486E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5117999073566038E-2</v>
+        <v>6.5124072246125486E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5117999073566038E-2</v>
+        <v>6.5124072246125486E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12363,14 +12363,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.76378793480462326</v>
+        <v>0.76386787317274796</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.76378793480462326</v>
+        <v>0.76386787317274796</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.4052426679550201</v>
+        <v>2.4055355699589396</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.4052426679550201</v>
+        <v>2.4055355699589396</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12438,21 +12438,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>506316.85247144621</v>
+        <v>506369.84380725585</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.37973759188638567</v>
+        <v>0.37977733538327496</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.37973759188638567</v>
+        <v>0.37977733538327496</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.53950921498131965</v>
+        <v>0.53956568024382068</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12462,14 +12462,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4278.8827133178711</v>
+        <v>4279.2817795276642</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2091616338431992E-3</v>
+        <v>3.2094609334631314E-3</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12480,17 +12480,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2131517.9168275199</v>
+        <v>2131716.7109598122</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.358842502122231</v>
+        <v>1.3589692333657259</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5986382377908601</v>
+        <v>1.5987873333714424</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2633555.8865856482</v>
+        <v>2633807.2729875403</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5769784801777247</v>
+        <v>1.5771292341456364</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7353709323747735</v>
+        <v>1.7355371078155377</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.855268800209088</v>
+        <v>1.8554461578183958</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9751666680434026</v>
+        <v>1.9753552078212542</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1349382911383366</v>
+        <v>2.1351435526818001</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12562,27 +12562,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1594441.1289771502</v>
+        <v>1594635.2944175156</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0164560926659216</v>
+        <v>1.0165798731186821</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1958306972540256</v>
+        <v>1.1959763213160965</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1958306972540256</v>
+        <v>1.1959763213160965</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1958306972540256</v>
+        <v>1.1959763213160965</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6989671144254543</v>
+        <v>1.6991740086731901</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12623,27 +12623,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1954134.6640193353</v>
+        <v>1954342.5303805417</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2967172864218233</v>
+        <v>1.2968545536321594</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4656008148143995</v>
+        <v>1.465756714565817</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5255497487315568</v>
+        <v>1.5257112395672463</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5854986826487141</v>
+        <v>1.5856657645686754</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9169527027818956</v>
+        <v>1.9171587806774952</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1003531-E68C-4AF4-BA27-A77D8948A2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{754D625D-5752-4040-A4EE-628DC5EF3863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5124072246125486E-2</v>
+        <v>6.5122047855272328E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5112,7 +5112,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.79668789543031726</v>
+        <v>0.79671266135432373</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.918846569642795</v>
+        <v>39.920087491120626</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5124072246125486E-2</v>
+        <v>6.5122047855272328E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5357,20 +5357,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2968545536321594</v>
+        <v>1.2968087975183828</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2047325977791195</v>
+        <v>2.2046536005278146</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5257112395672463</v>
+        <v>1.5256574088451564</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9171587806774952</v>
+        <v>1.9170900874154913</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10466,11 +10466,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2127437.4291802845</v>
+        <v>2127371.29749159</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29724736524250572</v>
+        <v>0.29726921040600307</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10491,7 +10491,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.711259979283549</v>
+        <v>1.7111535914276774</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12242,17 +12242,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5050824007537158E-2</v>
+        <v>2.5050045299185E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5050824007537158E-2</v>
+        <v>2.5050045299185E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5050824007537158E-2</v>
+        <v>2.5050045299185E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12293,17 +12293,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5124072246125486E-2</v>
+        <v>6.5122047855272328E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5124072246125486E-2</v>
+        <v>6.5122047855272328E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5124072246125486E-2</v>
+        <v>6.5122047855272328E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12363,14 +12363,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.76386787317274796</v>
+        <v>0.76384122686083955</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.76386787317274796</v>
+        <v>0.76384122686083955</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.4055355699589396</v>
+        <v>2.4054379343626522</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.4055355699589396</v>
+        <v>2.4054379343626522</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12438,21 +12438,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>506369.84380725585</v>
+        <v>506352.17990323139</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.37977733538327496</v>
+        <v>0.37976408745691259</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.37977733538327496</v>
+        <v>0.37976408745691259</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.53956568024382068</v>
+        <v>0.53954685835601024</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12462,14 +12462,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4279.2817795276642</v>
+        <v>4279.1487574577332</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2094609334631314E-3</v>
+        <v>3.2093611669231541E-3</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12480,17 +12480,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2131716.7109598122</v>
+        <v>2131650.4462490478</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3589692333657259</v>
+        <v>1.3589269896178942</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5987873333714424</v>
+        <v>1.5987376348445814</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2633807.2729875403</v>
+        <v>2633723.4773948216</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5771292341456364</v>
+        <v>1.5770789827430434</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7355371078155377</v>
+        <v>1.7354817159078837</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8554461578183958</v>
+        <v>1.8553870385212274</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9753552078212542</v>
+        <v>1.9752923611345712</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1351435526818001</v>
+        <v>2.1350751320336685</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12562,27 +12562,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1594635.2944175156</v>
+        <v>1594570.5715467439</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0165798731186821</v>
+        <v>1.0165386122937226</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1959763213160965</v>
+        <v>1.1959277791690854</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1959763213160965</v>
+        <v>1.1959277791690854</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1959763213160965</v>
+        <v>1.1959277791690854</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6991740086731901</v>
+        <v>1.6991050427973142</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12623,27 +12623,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1954342.5303805417</v>
+        <v>1954273.241002104</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2968545536321594</v>
+        <v>1.2968087975183828</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.465756714565817</v>
+        <v>1.4657047475384846</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5257112395672463</v>
+        <v>1.5256574088451564</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5856657645686754</v>
+        <v>1.5856100701518283</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9171587806774952</v>
+        <v>1.9170900874154913</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{754D625D-5752-4040-A4EE-628DC5EF3863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3F99D6-2B51-4D12-A89D-7EEF0D2210D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5122047855272328E-2</v>
+        <v>6.5120023464419183E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4724,7 +4724,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5112,7 +5112,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.79671266135432373</v>
+        <v>0.79673742881813014</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.920087491120626</v>
+        <v>39.92132848975168</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5122047855272328E-2</v>
+        <v>6.5120023464419183E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5357,20 +5357,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2968087975183828</v>
+        <v>1.2967630417816056</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2046536005278146</v>
+        <v>2.2045746040011713</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5256574088451564</v>
+        <v>1.5256035785665949</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9170900874154913</v>
+        <v>1.9170213947836272</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10466,11 +10466,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2127371.29749159</v>
+        <v>2127305.165802896</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29726921040600307</v>
+        <v>0.29729105556950042</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10491,7 +10491,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7111535914276774</v>
+        <v>1.7110472068789393</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12242,17 +12242,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5050045299185E-2</v>
+        <v>2.5049266590832842E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5050045299185E-2</v>
+        <v>2.5049266590832842E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5050045299185E-2</v>
+        <v>2.5049266590832842E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12293,17 +12293,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5122047855272328E-2</v>
+        <v>6.5120023464419183E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5122047855272328E-2</v>
+        <v>6.5120023464419183E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5122047855272328E-2</v>
+        <v>6.5120023464419183E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12363,14 +12363,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.76384122686083955</v>
+        <v>0.76381458073813135</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.76384122686083955</v>
+        <v>0.76381458073813135</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.4054379343626522</v>
+        <v>2.405340300361352</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.4054379343626522</v>
+        <v>2.405340300361352</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12438,21 +12438,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>506352.17990323139</v>
+        <v>506334.51612462819</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.37976408745691259</v>
+        <v>0.3797508396246162</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.37976408745691259</v>
+        <v>0.3797508396246162</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.53954685835601024</v>
+        <v>0.53952803660184323</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12462,14 +12462,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4279.1487574577332</v>
+        <v>4279.0157353878021</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2093611669231541E-3</v>
+        <v>3.2092614003831764E-3</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12480,17 +12480,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2131650.4462490478</v>
+        <v>2131584.1815382838</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3589269896178942</v>
+        <v>1.3588847458700628</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5987376348445814</v>
+        <v>1.5986879363177209</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2633723.4773948216</v>
+        <v>2633639.681927524</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5770789827430434</v>
+        <v>1.5770287314204059</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7354817159078837</v>
+        <v>1.7354263240942958</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8553870385212274</v>
+        <v>1.8553279193181247</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9752923611345712</v>
+        <v>1.9752295145419538</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1350751320336685</v>
+        <v>2.1350067115191811</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12562,27 +12562,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1594570.5715467439</v>
+        <v>1594505.8497332931</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0165386122937226</v>
+        <v>1.0164973521428053</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1959277791690854</v>
+        <v>1.1958792378150651</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1959277791690854</v>
+        <v>1.1958792378150651</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1959277791690854</v>
+        <v>1.1958792378150651</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6991050427973142</v>
+        <v>1.6990360780480736</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12623,27 +12623,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1954273.241002104</v>
+        <v>1954203.9522150373</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2968087975183828</v>
+        <v>1.2967630417816056</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4657047475384846</v>
+        <v>1.4656527809546804</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5256574088451564</v>
+        <v>1.5256035785665949</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5856100701518283</v>
+        <v>1.5855543761785094</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9170900874154913</v>
+        <v>1.9170213947836272</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3F99D6-2B51-4D12-A89D-7EEF0D2210D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3735822F-8D33-4F79-823E-0F8B6A23400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5120023464419183E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5112,7 +5112,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5208,7 +5208,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.79673742881813014</v>
+        <v>0.79676219782188029</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.92132848975168</v>
+        <v>39.922569565543164</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5120023464419183E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5357,20 +5357,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2967630417816056</v>
+        <v>1.3258310482863742</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2045746040011713</v>
+        <v>2.2794095091868223</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5256035785665949</v>
+        <v>1.5598012332780873</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9170213947836272</v>
+        <v>1.9820952253798456</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10466,11 +10466,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2127305.165802896</v>
+        <v>2127239.034114202</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29729105556950042</v>
+        <v>0.29731290073299765</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10491,7 +10491,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7110472068789393</v>
+        <v>1.710940825637334</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12242,17 +12242,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5049266590832842E-2</v>
+        <v>2.504848788248068E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5049266590832842E-2</v>
+        <v>2.504848788248068E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5049266590832842E-2</v>
+        <v>2.504848788248068E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12293,17 +12293,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5120023464419183E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5120023464419183E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5120023464419183E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12363,14 +12363,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.76381458073813135</v>
+        <v>0.796996105883085</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.76381458073813135</v>
+        <v>0.796996105883085</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12388,14 +12388,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.405340300361352</v>
+        <v>2.5098184361269773</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.405340300361352</v>
+        <v>2.5098184361269773</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12438,21 +12438,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>506334.51612462819</v>
+        <v>528330.62866585678</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.3797508396246162</v>
+        <v>0.39624792196840236</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.3797508396246162</v>
+        <v>0.39624792196840236</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.53952803660184323</v>
+        <v>0.57091003058702838</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12462,14 +12462,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4279.0157353878021</v>
+        <v>4278.8827133178711</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2092614003831764E-3</v>
+        <v>3.2091616338431992E-3</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12480,17 +12480,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2131584.1815382838</v>
+        <v>2131517.9168275199</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3588847458700628</v>
+        <v>1.358842502122231</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5986879363177209</v>
+        <v>1.5986382377908601</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12501,27 +12501,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2633639.681927524</v>
+        <v>2655569.6627800586</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5770287314204059</v>
+        <v>1.5910122607474388</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7354263240942958</v>
+        <v>1.7518812624567901</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8553279193181247</v>
+        <v>1.8717791302911047</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9752295145419538</v>
+        <v>1.991676998125419</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1350067115191811</v>
+        <v>2.1663391067440454</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12562,27 +12562,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1594505.8497332931</v>
+        <v>1663764.6563239829</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0164973521428053</v>
+        <v>1.0606498358253096</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1958792378150651</v>
+        <v>1.2478233362650701</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1958792378150651</v>
+        <v>1.2478233362650701</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1958792378150651</v>
+        <v>1.2478233362650701</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6990360780480736</v>
+        <v>1.7978513440156458</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12623,27 +12623,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1954203.9522150373</v>
+        <v>1999803.3157899566</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2967630417816056</v>
+        <v>1.3258310482863742</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4656527809546804</v>
+        <v>1.49985229936093</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5256035785665949</v>
+        <v>1.5598012332780873</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5855543761785094</v>
+        <v>1.6197501671952446</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9170213947836272</v>
+        <v>1.9820952253798456</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3735822F-8D33-4F79-823E-0F8B6A23400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7B656D-4002-4925-A9F5-E558FF5DD3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>1333333500</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>258</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,475 +3803,475 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>1615585</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>1446638</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>1769157</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="149">
         <v>1702154</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="149">
         <v>1383402</v>
       </c>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>897327</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>845264</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>981731</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="150">
         <v>959572</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>783542</v>
       </c>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>613104</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>599182</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>705390</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="150">
         <v>456610</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>396643</v>
       </c>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>1003</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>863</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>1613</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>2645</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <v>299</v>
       </c>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>2199</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>645</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-169280</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>-50846</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>35974</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>32106</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>15312</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>11600</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>734909</v>
       </c>
-      <c r="E37" s="151">
+      <c r="E37" s="150">
         <v>677999</v>
       </c>
-      <c r="F37" s="151">
+      <c r="F37" s="150">
         <v>1352795</v>
       </c>
-      <c r="G37" s="151">
+      <c r="G37" s="150">
         <v>1205068</v>
       </c>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>18682</v>
       </c>
-      <c r="E38" s="151">
+      <c r="E38" s="150">
         <v>61277</v>
       </c>
-      <c r="F38" s="151">
+      <c r="F38" s="150">
         <v>51229</v>
       </c>
-      <c r="G38" s="151">
+      <c r="G38" s="150">
         <v>23195</v>
       </c>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <v>6202</v>
       </c>
-      <c r="E39" s="151">
+      <c r="E39" s="150">
         <v>5517</v>
       </c>
-      <c r="F39" s="151">
+      <c r="F39" s="150">
         <v>301783</v>
       </c>
-      <c r="G39" s="151">
+      <c r="G39" s="150">
         <v>3225</v>
       </c>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>10412</v>
       </c>
-      <c r="E40" s="151">
+      <c r="E40" s="150">
         <v>9392</v>
       </c>
-      <c r="F40" s="151">
+      <c r="F40" s="150">
         <v>5096</v>
       </c>
-      <c r="G40" s="151">
+      <c r="G40" s="150">
         <v>6880</v>
       </c>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>2824568</v>
       </c>
-      <c r="E41" s="151">
+      <c r="E41" s="150">
         <v>2735259</v>
       </c>
-      <c r="F41" s="151">
+      <c r="F41" s="150">
         <v>250534</v>
       </c>
-      <c r="G41" s="151">
+      <c r="G41" s="150">
         <v>13930</v>
       </c>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>7297</v>
       </c>
-      <c r="E42" s="151">
+      <c r="E42" s="150">
         <v>1498</v>
       </c>
-      <c r="F42" s="151">
+      <c r="F42" s="150">
         <v>2853</v>
       </c>
-      <c r="G42" s="151">
+      <c r="G42" s="150">
         <v>696</v>
       </c>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <v>2868641</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.1178</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5117999073566038E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>6.472459813060924E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4276,10 +4280,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4396,7 +4400,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4410,7 +4414,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4434,7 +4438,7 @@
       <c r="C59" s="120">
         <v>0</v>
       </c>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4514,7 +4518,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4528,7 +4532,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4543,7 +4547,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4599,14 +4603,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4700,7 +4704,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4708,19 +4712,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>265</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4734,14 +4739,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4753,12 +4758,12 @@
         <f>C25</f>
         <v>1615585</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>1615585</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>1615585</v>
       </c>
@@ -4771,15 +4776,15 @@
         <f>C26</f>
         <v>897327</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>897327</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>897327</v>
       </c>
@@ -4792,15 +4797,15 @@
         <f>C27+C28</f>
         <v>613104</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>613104</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>613104</v>
       </c>
@@ -4813,12 +4818,12 @@
         <f>C29</f>
         <v>1003</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>1003.0000000000001</v>
       </c>
@@ -4831,15 +4836,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>20662</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>20662</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>20662</v>
       </c>
@@ -4852,12 +4857,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4870,12 +4875,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2932</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>2932</v>
       </c>
@@ -4884,16 +4889,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.1178</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.1178</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.1178</v>
       </c>
@@ -5012,17 +5017,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -5032,40 +5037,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2586.6669900000002</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>2600.000325</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5073,11 +5078,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5088,22 +5093,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -5112,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5132,7 +5137,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5143,7 +5148,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5157,11 +5162,11 @@
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5170,7 +5175,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5181,7 +5186,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5192,10 +5197,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5207,10 +5212,10 @@
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5232,14 +5237,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.55541924442229906</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5247,7 +5252,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.37949349616392825</v>
       </c>
@@ -5258,7 +5263,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.8148224946381651E-3</v>
       </c>
@@ -5270,46 +5275,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.79676219782188029</v>
+        <v>0.801604977985659</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.208277497005729E-4</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.922569565543164</v>
+        <v>40.165221925943307</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.2789175437999239E-2</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>2.5996778479834153</v>
       </c>
@@ -5318,16 +5323,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.9862433731434744E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5117999073566038E-2</v>
+        <v>6.472459813060924E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5346,10 +5351,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5357,22 +5362,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3258310482863742</v>
+        <v>1.2944710868600313</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2794095091868223</v>
+        <v>2.2004423765216998</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5598012332780873</v>
-      </c>
-      <c r="G29" s="273">
+        <v>1.5229071610118017</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9820952253798456</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>1.9134281534971302</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5384,17 +5389,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5404,7 +5409,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5412,17 +5417,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5432,24 +5437,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5459,7 +5464,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5478,10 +5483,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6463,16 +6468,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6486,11 +6491,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6523,7 +6528,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6587,47 +6592,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1615585</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1446638</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>1769157</v>
       </c>
-      <c r="F6" s="201">
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1702154</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>1383402</v>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6689,47 +6694,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>897327</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>845264</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>981731</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>959572</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>783542</v>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6740,47 +6745,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>718258</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>601374</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>787426</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
         <v>742582</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
         <v>599860</v>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6791,47 +6796,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>613104</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>599182</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>705390</v>
       </c>
-      <c r="F10" s="200">
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>456610</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>396643</v>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6842,47 +6847,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6893,47 +6898,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2932</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>860</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6941,50 +6946,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>9.2075557257586215E-4</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>4.6370107344910601E-2</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
         <v>0.16800595010792208</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
         <v>0.14689656368864581</v>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6992,50 +6997,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>102222</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1332</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>82036</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
         <v>285972</v>
       </c>
-      <c r="G14" s="231">
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
         <v>203217</v>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7043,50 +7048,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>75.743243243243242</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.98376322590082399</v>
       </c>
-      <c r="E15" s="233">
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
         <v>-0.71313275425566136</v>
       </c>
-      <c r="F15" s="233">
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
         <v>0.40722478926467764</v>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7097,47 +7102,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-169280</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-50846</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7148,47 +7153,47 @@
       <c r="B17" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>1003</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>863</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>1613</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>2645</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>299</v>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7199,47 +7204,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>2.2266856897037297E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>2.2193527337177648E-2</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7250,47 +7255,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>35974</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>32106</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7301,47 +7306,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>9.4776814590380575E-3</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>8.0185920734834829E-3</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7352,47 +7357,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>15312</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>11600</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7403,47 +7408,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>80557</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-20037</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>80423</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
         <v>283327</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
         <v>202918</v>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7454,47 +7459,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-1.0388051468300985E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>3.4093780258055109E-2</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
         <v>0.12483902749104958</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
         <v>0.11001032237917828</v>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7505,7 +7510,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>60417.75</v>
       </c>
@@ -7553,50 +7558,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234" t="str">
+      <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="234">
+      <c r="E25" s="233">
         <f t="shared" si="10"/>
         <v>-0.71614777271491947</v>
       </c>
-      <c r="F25" s="234">
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
         <v>0.3962635153116037</v>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7713,43 +7718,43 @@
         <f>Fin_Analysis!C28</f>
         <v>2983374</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7764,43 +7769,43 @@
         <f>Fin_Analysis!C13</f>
         <v>180994</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7815,43 +7820,43 @@
         <f>Fin_Analysis!C18</f>
         <v>158110</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7866,43 +7871,43 @@
         <f>Fin_Analysis!I28</f>
         <v>611931</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>734909</v>
       </c>
-      <c r="E31" s="200">
+      <c r="E31" s="199">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>677999</v>
       </c>
-      <c r="F31" s="200">
+      <c r="F31" s="199">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>1352795</v>
       </c>
-      <c r="G31" s="200">
+      <c r="G31" s="199">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>1205068</v>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7917,43 +7922,43 @@
         <f>Fin_Analysis!I48</f>
         <v>30946</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>18682</v>
       </c>
-      <c r="E32" s="200">
+      <c r="E32" s="199">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v>61277</v>
       </c>
-      <c r="F32" s="200">
+      <c r="F32" s="199">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v>51229</v>
       </c>
-      <c r="G32" s="200">
+      <c r="G32" s="199">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v>23195</v>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7968,43 +7973,43 @@
         <f>Fin_Analysis!I15</f>
         <v>13416</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>6202</v>
       </c>
-      <c r="E33" s="200">
+      <c r="E33" s="199">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>5517</v>
       </c>
-      <c r="F33" s="200">
+      <c r="F33" s="199">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>301783</v>
       </c>
-      <c r="G33" s="200">
+      <c r="G33" s="199">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>3225</v>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -8019,43 +8024,43 @@
         <f>Fin_Analysis!I34</f>
         <v>20583</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>10412</v>
       </c>
-      <c r="E34" s="200">
+      <c r="E34" s="199">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>9392</v>
       </c>
-      <c r="F34" s="200">
+      <c r="F34" s="199">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>5096</v>
       </c>
-      <c r="G34" s="200">
+      <c r="G34" s="199">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>6880</v>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8121,43 +8126,43 @@
         <f>Fin_Analysis!D3</f>
         <v>3027292</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>2824568</v>
       </c>
-      <c r="E36" s="200">
+      <c r="E36" s="199">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>2735259</v>
       </c>
-      <c r="F36" s="200">
+      <c r="F36" s="199">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>250534</v>
       </c>
-      <c r="G36" s="200">
+      <c r="G36" s="199">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>13930</v>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8172,43 +8177,43 @@
         <f>Fin_Analysis!D4</f>
         <v>3990</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>7297</v>
       </c>
-      <c r="E37" s="200">
+      <c r="E37" s="199">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>1498</v>
       </c>
-      <c r="F37" s="200">
+      <c r="F37" s="199">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>2853</v>
       </c>
-      <c r="G37" s="200">
+      <c r="G37" s="199">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>696</v>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8223,43 +8228,43 @@
         <f>Fin_Analysis!C63</f>
         <v>3045410</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>2868641</v>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8321,47 +8326,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>0.16361829121309177</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>1.8773308076750696E-3</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8390,47 +8395,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.5842954491724951</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.55491457230760188</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
         <v>0.56373982612619067</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
         <v>0.56638778894348862</v>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8441,47 +8446,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.41418931342879145</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.39871532034748752</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
         <v>0.2682542237658872</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
         <v>0.28671564736786559</v>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8492,47 +8497,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8543,47 +8548,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>5.9655559994967644E-4</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>9.1173366750378854E-4</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
         <v>1.5539134531893119E-3</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
         <v>2.1613384974143452E-4</v>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8594,47 +8599,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>5.9448182613756862E-4</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8645,47 +8650,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>1.4174935263694165E-2</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8696,47 +8701,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-1.385073529106798E-2</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>4.5458373677406808E-2</v>
       </c>
-      <c r="F48" s="154">
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
         <v>0.16645203665473277</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
         <v>0.14668042983890439</v>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8765,47 +8770,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0.11203000770618693</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8816,47 +8821,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>9.7865479067953717E-2</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8884,47 +8889,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.1751627786077426</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.21060858391144721</v>
       </c>
-      <c r="E53" s="157">
+      <c r="E53" s="156">
         <f t="shared" si="43"/>
         <v>0.21276976631405353</v>
       </c>
-      <c r="F53" s="157">
+      <c r="F53" s="156">
         <f t="shared" si="43"/>
         <v>0.84857949978181479</v>
       </c>
-      <c r="G53" s="157">
+      <c r="G53" s="156">
         <f t="shared" si="43"/>
         <v>0.98878596160178012</v>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8934,47 +8939,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>2.369393217447572</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>-1.2060310581437341</v>
       </c>
-      <c r="E54" s="158">
+      <c r="E54" s="157">
         <f t="shared" si="44"/>
         <v>5.3942585015762292</v>
       </c>
-      <c r="F54" s="158">
+      <c r="F54" s="157">
         <f t="shared" si="44"/>
         <v>0.92325313885928983</v>
       </c>
-      <c r="G54" s="158">
+      <c r="G54" s="157">
         <f t="shared" si="44"/>
         <v>20.080950024740229</v>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8984,47 +8989,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.2450811226833175E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>-4.3070319908169882E-2</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>2.0056451512626985E-2</v>
       </c>
-      <c r="F55" s="154">
+      <c r="F55" s="153">
         <f t="shared" si="45"/>
         <v>9.3355027935918562E-3</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="153">
         <f t="shared" si="45"/>
         <v>1.4735016114883846E-3</v>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9034,47 +9039,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>4.8753437887604978</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10372,8 +10377,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10422,7 +10427,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>3023302</v>
       </c>
@@ -10466,11 +10471,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2127239.034114202</v>
+        <v>2125286.5334459743</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29731290073299765</v>
+        <v>0.29795786681761316</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10491,7 +10496,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.710940825637334</v>
+        <v>1.70780146992818</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10519,7 +10524,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10566,7 +10571,7 @@
         <f>Inputs!C48</f>
         <v>2385307</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10594,7 +10599,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10622,7 +10627,7 @@
         <f>Inputs!C50</f>
         <v>180994</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10650,7 +10655,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10663,7 +10668,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10678,7 +10683,7 @@
         <f>Inputs!C52</f>
         <v>253051</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10705,7 +10710,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10727,7 +10732,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10749,7 +10754,7 @@
         <f>Inputs!C55</f>
         <v>158110</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10770,7 +10775,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10795,7 +10800,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10822,7 +10827,7 @@
         <f>Inputs!C58</f>
         <v>5912</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10843,7 +10848,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -11008,7 +11013,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>611931</v>
       </c>
@@ -11037,7 +11042,7 @@
         <f>Inputs!C60</f>
         <v>279425</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11063,7 +11068,7 @@
         <f>Inputs!C61</f>
         <v>126127</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11090,7 +11095,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11117,7 +11122,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11133,7 +11138,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11147,7 +11152,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11174,7 +11179,7 @@
         <f>Inputs!C65</f>
         <v>1500</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11200,7 +11205,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11227,7 +11232,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11254,7 +11259,7 @@
         <f>Inputs!C68</f>
         <v>193915</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11275,7 +11280,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11296,7 +11301,7 @@
         <f>Inputs!C70</f>
         <v>9704</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11317,7 +11322,7 @@
         <f>Inputs!C71</f>
         <v>76124</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11338,7 +11343,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11484,7 +11489,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>30946</v>
       </c>
@@ -11593,11 +11598,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11608,11 +11613,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11624,11 +11629,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11724,8 +11729,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>33999</v>
@@ -11805,8 +11810,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>608878</v>
@@ -11842,19 +11847,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11864,18 +11869,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11886,17 +11891,17 @@
         <f>Data!C6</f>
         <v>1615585</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>1615585</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>1615585</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11907,23 +11912,23 @@
         <f>Data!C8</f>
         <v>897327</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>897327</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>897327</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.55541924442229906</v>
       </c>
@@ -11933,21 +11938,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>718258</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>718258</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>718258</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11958,23 +11963,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>613104</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>613104</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>613104</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.37949349616392825</v>
       </c>
@@ -11988,54 +11993,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>2932</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>2932</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>2932</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>1.8148224946381651E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>102222</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>102222</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>102222</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>6.3272436919134561E-2</v>
       </c>
@@ -12049,27 +12054,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12081,23 +12086,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>1003</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>1003.0000000000001</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>1003.0000000000001</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>6.208277497005729E-4</v>
       </c>
@@ -12111,23 +12116,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>20662</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>20662</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>20662</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>1.2789175437999239E-2</v>
       </c>
@@ -12137,27 +12142,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>80557</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>80557</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>80557</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>4.9862433731434744E-2</v>
       </c>
@@ -12167,49 +12172,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>60417.75</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>60417.75</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>60417.75</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>3.7396825298576054E-2</v>
       </c>
@@ -12219,69 +12224,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.504848788248068E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>2.4897161077406756E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.504848788248068E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>2.4897161077406756E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.504848788248068E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>2.4897161077406756E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.1178</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>2.5996778479834153</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.1178</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>2.5996778479834153</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.1178</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>2.5996778479834153</v>
       </c>
@@ -12291,21 +12296,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5117999073566038E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>6.472459813060924E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5117999073566038E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.472459813060924E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5117999073566038E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>6.472459813060924E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12327,22 +12332,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12352,9 +12357,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12362,15 +12367,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>0.796996105883085</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>0.76252378471239246</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>0.796996105883085</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>0.76252378471239246</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12378,24 +12383,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.5098184361269773</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.3986004762829221</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.5098184361269773</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.3986004762829221</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12416,14 +12424,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12438,21 +12446,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>528330.62866585678</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>505478.84434565209</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.39624792196840236</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>0.37910908587060332</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.39624792196840236</v>
+        <v>0.37910908587060332</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.57091003058702838</v>
+        <v>0.53861626997289602</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12462,16 +12470,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4278.8827133178711</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>4274.9553120136261</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2091616338431992E-3</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>3.206216083233209E-3</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12480,19 +12488,19 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2131517.9168275199</v>
-      </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+        <v>2129561.488757988</v>
+      </c>
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.358842502122231</v>
-      </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+        <v>1.3575952793838075</v>
+      </c>
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5986382377908601</v>
-      </c>
-      <c r="I99" s="217"/>
+        <v>1.5971709169221264</v>
+      </c>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12501,27 +12509,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2655569.6627800586</v>
+        <v>2630765.3777916264</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5910122607474388</v>
+        <v>1.5752930727492864</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7518812624567901</v>
+        <v>1.7334981491711776</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8717791302911047</v>
+        <v>1.8532859679403371</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.991676998125419</v>
+        <v>1.9730737867094965</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1663391067440454</v>
+        <v>2.1325809708117891</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12540,14 +12548,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12562,27 +12570,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1663764.6563239829</v>
+        <v>1590038.0041990806</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0606498358253096</v>
+        <v>1.0136491009707764</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2478233362650701</v>
+        <v>1.1925283540832663</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.2478233362650701</v>
+        <v>1.1925283540832663</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2478233362650701</v>
+        <v>1.1925283540832663</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7978513440156458</v>
+        <v>1.6942753361824716</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12601,14 +12609,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12623,27 +12631,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1999803.3157899566</v>
+        <v>1950684.5793385042</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3258310482863742</v>
+        <v>1.2944710868600313</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.49985229936093</v>
+        <v>1.4630132516272218</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5598012332780873</v>
+        <v>1.5229071610118017</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.6197501671952446</v>
+        <v>1.5828010703963815</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9820952253798456</v>
+        <v>1.9134281534971302</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7B656D-4002-4925-A9F5-E558FF5DD3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D2E43-935A-439B-9998-A09B7A8CF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -958,6 +958,9 @@
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
 </sst>
 </file>
@@ -3573,8 +3576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3627,7 +3630,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -4233,7 +4236,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.472459813060924E-2</v>
+        <v>6.5257170653302027E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4715,7 +4718,9 @@
       <c r="C87" s="236" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -5027,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -5068,7 +5073,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2600.000325</v>
+        <v>2573.3336549999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5106,7 +5111,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v>Tier 3</v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5117,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5163,10 +5168,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5213,7 +5218,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5284,7 +5289,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.801604977985659</v>
+        <v>0.7950629722404664</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5300,7 +5305,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>40.165221925943307</v>
+        <v>39.837428162415605</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5332,7 +5337,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.472459813060924E-2</v>
+        <v>6.5257170653302027E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5362,20 +5367,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2944710868600313</v>
+        <v>1.2931633974426333</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2004423765216998</v>
+        <v>2.0851881547978053</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5229071610118017</v>
+        <v>1.5213687028736862</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9134281534971302</v>
+        <v>1.8132070911285265</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10471,11 +10476,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2125286.5334459743</v>
+        <v>2120796.830242137</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29795786681761316</v>
+        <v>0.29944094251821862</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10496,7 +10501,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.70780146992818</v>
+        <v>1.7005935732734672</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12247,17 +12252,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4897161077406756E-2</v>
+        <v>2.5102022046278687E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4897161077406756E-2</v>
+        <v>2.5102022046278687E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4897161077406756E-2</v>
+        <v>2.5102022046278687E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12298,17 +12303,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.472459813060924E-2</v>
+        <v>6.5257170653302027E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.472459813060924E-2</v>
+        <v>6.5257170653302027E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.472459813060924E-2</v>
+        <v>6.5257170653302027E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12357,7 +12362,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12368,14 +12373,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.76252378471239246</v>
+        <v>0.76167371777736492</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.76252378471239246</v>
+        <v>0.76167371777736492</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12389,21 +12394,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3986004762829221</v>
+        <v>2.3995255808063458</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3986004762829221</v>
+        <v>2.3995255808063458</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12446,21 +12451,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>505478.84434565209</v>
+        <v>504915.33293715713</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.37910908587060332</v>
+        <v>0.37868645236706133</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.37910908587060332</v>
+        <v>0.37868645236706133</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.53861626997289602</v>
+        <v>0.49051893684109249</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12470,14 +12475,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4274.9553120136261</v>
+        <v>4265.9243977069855</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.206216083233209E-3</v>
+        <v>3.199442898349877E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12488,17 +12493,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2129561.488757988</v>
+        <v>2125062.7546398439</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3575952793838075</v>
+        <v>1.3547273367419834</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5971709169221264</v>
+        <v>1.5937968667552747</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12509,27 +12514,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2630765.3777916264</v>
+        <v>2625712.1631792942</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5752930727492864</v>
+        <v>1.5722867445347395</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7334981491711776</v>
+        <v>1.7302143462106949</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8532859679403371</v>
+        <v>1.8497491112173405</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9730737867094965</v>
+        <v>1.9692838762239862</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.1325809708117891</v>
+        <v>2.0811163606980174</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12570,27 +12575,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1590038.0041990806</v>
+        <v>1590651.2582047582</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0136491009707764</v>
+        <v>1.0140400503505271</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1925283540832663</v>
+        <v>1.1929882945300319</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1925283540832663</v>
+        <v>1.1929882945300319</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1925283540832663</v>
+        <v>1.1929882945300319</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6942753361824716</v>
+        <v>1.5452978215590356</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12631,27 +12636,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1950684.5793385042</v>
+        <v>1948802.0040940379</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2944710868600313</v>
+        <v>1.2931633974426333</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4630132516272218</v>
+        <v>1.4616013203703635</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5229071610118017</v>
+        <v>1.5213687028736862</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5828010703963815</v>
+        <v>1.5811360853770089</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9134281534971302</v>
+        <v>1.8132070911285265</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D2E43-935A-439B-9998-A09B7A8CF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{574B3B98-75AF-4589-A144-AF8B1CE15854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5257170653302027E-2</v>
+        <v>6.6029777897174027E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2573.3336549999999</v>
+        <v>2546.6669849999998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5122,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.7950629722404664</v>
+        <v>0.7857600269444216</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.837428162415605</v>
+        <v>39.371294751768012</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5257170653302027E-2</v>
+        <v>6.6029777897174027E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5367,20 +5367,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2931633974426333</v>
+        <v>1.2969919558865173</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.0851881547978053</v>
+        <v>2.0916524868949375</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5213687028736862</v>
+        <v>1.5258728892782556</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8132070911285265</v>
+        <v>1.818828249473859</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10476,11 +10476,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2120796.830242137</v>
+        <v>2123668.4746789732</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29944094251821862</v>
+        <v>0.2984923573018482</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10501,7 +10501,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7005935732734672</v>
+        <v>1.7052020357460129</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12252,17 +12252,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5102022046278687E-2</v>
+        <v>2.5399215502179894E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5102022046278687E-2</v>
+        <v>2.5399215502179894E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5102022046278687E-2</v>
+        <v>2.5399215502179894E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12303,17 +12303,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5257170653302027E-2</v>
+        <v>6.6029777897174027E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5257170653302027E-2</v>
+        <v>6.6029777897174027E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5257170653302027E-2</v>
+        <v>6.6029777897174027E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12373,14 +12373,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.76167371777736492</v>
+        <v>0.76381129786929303</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.76167371777736492</v>
+        <v>0.76381129786929303</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12401,14 +12401,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3995255808063458</v>
+        <v>2.4115006776460985</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.3995255808063458</v>
+        <v>2.4115006776460985</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12451,21 +12451,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>504915.33293715713</v>
+        <v>506332.33990300755</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.37868645236706133</v>
+        <v>0.37974920745860474</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.37868645236706133</v>
+        <v>0.37974920745860474</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.49051893684109249</v>
+        <v>0.49189554140238018</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12475,14 +12475,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4265.9243977069855</v>
+        <v>4271.7006313800812</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.199442898349877E-3</v>
+        <v>3.2037750730631769E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12493,17 +12493,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2125062.7546398439</v>
+        <v>2127940.1753103533</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3547273367419834</v>
+        <v>1.3565616921901387</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5937968667552747</v>
+        <v>1.5959549319883986</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12514,27 +12514,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2625712.1631792942</v>
+        <v>2630000.8145819809</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5722867445347395</v>
+        <v>1.5748831828035885</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7302143462106949</v>
+        <v>1.7331071245756802</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8497491112173405</v>
+        <v>1.85280374447481</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9692838762239862</v>
+        <v>1.9725003643739401</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.0811163606980174</v>
+        <v>2.0846466983177154</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12575,27 +12575,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1590651.2582047582</v>
+        <v>1598589.5785992737</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0140400503505271</v>
+        <v>1.0191007289694458</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1929882945300319</v>
+        <v>1.198942034081701</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1929882945300319</v>
+        <v>1.198942034081701</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1929882945300319</v>
+        <v>1.198942034081701</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.5452978215590356</v>
+        <v>1.5530098006300026</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12636,27 +12636,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1948802.0040940379</v>
+        <v>1954699.6834423507</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2931633974426333</v>
+        <v>1.2969919558865173</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4616013203703635</v>
+        <v>1.4660245793286906</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5213687028736862</v>
+        <v>1.5258728892782556</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5811360853770089</v>
+        <v>1.5857211992278204</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.8132070911285265</v>
+        <v>1.818828249473859</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574B3B98-75AF-4589-A144-AF8B1CE15854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B288B89D-9904-4BC9-A36A-263411571D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,19 +938,30 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>6601.HK</t>
   </si>
   <si>
     <t>朝云集团</t>
   </si>
   <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
     <t>C0007</t>
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Avg</t>
@@ -958,9 +969,6 @@
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier 3</t>
   </si>
 </sst>
 </file>
@@ -3576,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,7 +3606,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3606,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3630,7 +3638,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3647,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3663,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3695,7 @@
         <v>255</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4236,7 +4244,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6029777897174027E-2</v>
+        <v>6.5717018196980156E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4369,7 +4377,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4501,7 +4509,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -4716,7 +4724,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -5032,10 +5040,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5073,7 +5081,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2546.6669849999998</v>
+        <v>2560.0003200000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5122,7 +5130,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5168,10 +5176,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5218,7 +5226,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5289,7 +5297,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.7857600269444216</v>
+        <v>0.78949960730266067</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5305,7 +5313,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.371294751768012</v>
+        <v>39.558670178722082</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5337,7 +5345,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6029777897174027E-2</v>
+        <v>6.5717018196980156E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5367,20 +5375,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2969919558865173</v>
+        <v>1.4242000087861644</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.0916524868949375</v>
+        <v>2.3905062748668389</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5258728892782556</v>
+        <v>1.6755294221013699</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.818828249473859</v>
+        <v>2.0787011085798599</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10476,11 +10484,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2123668.4746789732</v>
+        <v>2124675.4261963367</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.2984923573018482</v>
+        <v>0.2981597327921004</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10501,7 +10509,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7052020357460129</v>
+        <v>1.7068194848671787</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12252,17 +12260,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5399215502179894E-2</v>
+        <v>2.5278908403192041E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5399215502179894E-2</v>
+        <v>2.5278908403192041E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5399215502179894E-2</v>
+        <v>2.5278908403192041E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12303,17 +12311,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6029777897174027E-2</v>
+        <v>6.5717018196980156E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6029777897174027E-2</v>
+        <v>6.5717018196980156E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6029777897174027E-2</v>
+        <v>6.5717018196980156E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12362,7 +12370,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12373,14 +12381,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.76381129786929303</v>
+        <v>0.90889619865259996</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.76381129786929303</v>
+        <v>0.90889619865259996</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12401,14 +12409,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.4115006776460985</v>
+        <v>2.867036413045744</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.4115006776460985</v>
+        <v>2.867036413045744</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12451,21 +12459,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>506332.33990300755</v>
+        <v>602509.4683418416</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.37974920745860474</v>
+        <v>0.45188204477112559</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.37974920745860474</v>
+        <v>0.45188204477112559</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.49189554140238018</v>
+        <v>0.61714957030427009</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12475,14 +12483,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4271.7006313800812</v>
+        <v>4273.7260866165161</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2037750730631769E-3</v>
+        <v>3.2052941643006165E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12493,17 +12501,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2127940.1753103533</v>
+        <v>2128949.1522829533</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3565616921901387</v>
+        <v>1.3572049149297682</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5959549319883986</v>
+        <v>1.5967116646232569</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12514,27 +12522,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2630000.8145819809</v>
+        <v>2727184.8945381781</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5748831828035885</v>
+        <v>1.6367897843258368</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.7331071245756802</v>
+        <v>1.8058816655365932</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.85280374447481</v>
+        <v>1.9256350403833373</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9725003643739401</v>
+        <v>2.0453884152300814</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.0846466983177154</v>
+        <v>2.2106559407632265</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12575,27 +12583,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1598589.5785992737</v>
+        <v>1900565.3093298371</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0191007289694458</v>
+        <v>1.211610233246492</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.198942034081701</v>
+        <v>1.4254238038194023</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.198942034081701</v>
+        <v>1.4254238038194023</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.198942034081701</v>
+        <v>1.4254238038194023</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.5530098006300026</v>
+        <v>1.9467462763964933</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12636,27 +12644,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1954699.6834423507</v>
+        <v>2154203.9155127862</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.2969919558865173</v>
+        <v>1.4242000087861644</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.4660245793286906</v>
+        <v>1.6156527346779979</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5258728892782556</v>
+        <v>1.6755294221013699</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.5857211992278204</v>
+        <v>1.7354061095247419</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.818828249473859</v>
+        <v>2.0787011085798599</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B288B89D-9904-4BC9-A36A-263411571D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6D351C-6707-488B-B76C-59592F254C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3584,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3606,7 +3610,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3614,7 +3618,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3638,7 +3642,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3647,7 +3651,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3663,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4244,7 +4248,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5717018196980156E-2</v>
+        <v>6.5667934032777944E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4724,7 +4728,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -5043,7 +5047,7 @@
         <v>1.92</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5130,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5151,7 +5155,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5162,7 +5166,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5189,7 +5193,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5297,7 +5301,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78949960730266067</v>
+        <v>0.7900897268021273</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5313,7 +5317,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.558670178722082</v>
+        <v>39.588238708496512</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5345,7 +5349,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5717018196980156E-2</v>
+        <v>6.5667934032777944E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5375,20 +5379,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4242000087861644</v>
+        <v>1.4229792096346041</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.3905062748668389</v>
+        <v>2.3884305901703682</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6755294221013699</v>
+        <v>1.6740931878054166</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0787011085798599</v>
+        <v>2.0768961653655378</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5423,8 +5427,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6450,12 +6454,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8881,118 +8885,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>-1.0019710323355846</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>0.15765272743621306</v>
+      </c>
+      <c r="E52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.1751627786077426</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.21060858391144721</v>
       </c>
-      <c r="E53" s="156">
-        <f t="shared" si="43"/>
+      <c r="E54" s="156">
+        <f t="shared" si="44"/>
         <v>0.21276976631405353</v>
       </c>
-      <c r="F53" s="156">
-        <f t="shared" si="43"/>
+      <c r="F54" s="156">
+        <f t="shared" si="44"/>
         <v>0.84857949978181479</v>
       </c>
-      <c r="G53" s="156">
-        <f t="shared" si="43"/>
+      <c r="G54" s="156">
+        <f t="shared" si="44"/>
         <v>0.98878596160178012</v>
       </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>2.369393217447572</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>-1.2060310581437341</v>
-      </c>
-      <c r="E54" s="157">
+        <v/>
+      </c>
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>5.3942585015762292</v>
-      </c>
-      <c r="F54" s="157">
+        <v/>
+      </c>
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>0.92325313885928983</v>
-      </c>
-      <c r="G54" s="157">
+        <v/>
+      </c>
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>20.080950024740229</v>
-      </c>
-      <c r="H54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -9000,107 +9005,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.2450811226833175E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>2.369393217447572</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>-4.3070319908169882E-2</v>
-      </c>
-      <c r="E55" s="153">
+        <v>-1.2060310581437341</v>
+      </c>
+      <c r="E55" s="157">
         <f t="shared" si="45"/>
-        <v>2.0056451512626985E-2</v>
-      </c>
-      <c r="F55" s="153">
+        <v>5.3942585015762292</v>
+      </c>
+      <c r="F55" s="157">
         <f t="shared" si="45"/>
-        <v>9.3355027935918562E-3</v>
-      </c>
-      <c r="G55" s="153">
+        <v>0.92325313885928983</v>
+      </c>
+      <c r="G55" s="157">
         <f t="shared" si="45"/>
-        <v>1.4735016114883846E-3</v>
-      </c>
-      <c r="H55" s="153" t="str">
+        <v>20.080950024740229</v>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.2450811226833175E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-4.3070319908169882E-2</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>2.0056451512626985E-2</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>9.3355027935918562E-3</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.4735016114883846E-3</v>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>4.8753437887604978</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9668,7 +9720,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10351,6 +10405,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10484,11 +10539,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2124675.4261963367</v>
+        <v>2123088.5021337867</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.2981597327921004</v>
+        <v>0.29868393860460551</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10509,7 +10564,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7068194848671787</v>
+        <v>1.7042707836857955</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12260,17 +12315,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5278908403192041E-2</v>
+        <v>2.5260027539072555E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5278908403192041E-2</v>
+        <v>2.5260027539072555E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5278908403192041E-2</v>
+        <v>2.5260027539072555E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12311,17 +12366,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5717018196980156E-2</v>
+        <v>6.5667934032777944E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5717018196980156E-2</v>
+        <v>6.5667934032777944E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5717018196980156E-2</v>
+        <v>6.5667934032777944E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12381,14 +12436,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90889619865259996</v>
+        <v>0.90813371978094093</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90889619865259996</v>
+        <v>0.90813371978094093</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12409,14 +12464,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.867036413045744</v>
+        <v>2.864235330736121</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.867036413045744</v>
+        <v>2.864235330736121</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12459,21 +12514,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>602509.4683418416</v>
+        <v>602004.01927046664</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.45188204477112559</v>
+        <v>0.45150295801498025</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.45188204477112559</v>
+        <v>0.45150295801498025</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.61714957030427009</v>
+        <v>0.61663183955711975</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12483,14 +12538,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4273.7260866165161</v>
+        <v>4270.5340325832367</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2052941643006165E-3</v>
+        <v>3.2029001240749121E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12501,17 +12556,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2128949.1522829533</v>
+        <v>2127359.0361663699</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3572049149297682</v>
+        <v>1.3561912160321588</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5967116646232569</v>
+        <v>1.5955190776848927</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12522,27 +12577,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2727184.8945381781</v>
+        <v>2725092.5214042533</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6367897843258368</v>
+        <v>1.6355319240370163</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.8058816655365932</v>
+        <v>1.8044912739230641</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9256350403833373</v>
+        <v>1.924155204749431</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0453884152300814</v>
+        <v>2.0438191355757982</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>2.2106559407632265</v>
+        <v>2.2089480171179376</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12583,27 +12638,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1900565.3093298371</v>
+        <v>1898708.4651537314</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.211610233246492</v>
+        <v>1.2104264952321919</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4254238038194023</v>
+        <v>1.4240311708614022</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4254238038194023</v>
+        <v>1.4240311708614022</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4254238038194023</v>
+        <v>1.4240311708614022</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9467462763964933</v>
+        <v>1.9448443136131377</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12644,27 +12699,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2154203.9155127862</v>
+        <v>2152348.5655665146</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4242000087861644</v>
+        <v>1.4229792096346041</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.6156527346779979</v>
+        <v>1.614261222392233</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.6755294221013699</v>
+        <v>1.6740931878054166</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.7354061095247419</v>
+        <v>1.7339251532186002</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.0787011085798599</v>
+        <v>2.0768961653655378</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6D351C-6707-488B-B76C-59592F254C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50C12A3-0AE9-405C-BD82-C918B698F8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5667934032777944E-2</v>
+        <v>6.4633494813218076E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2560.0003200000001</v>
+        <v>2600.000325</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.7900897268021273</v>
+        <v>0.80273487004770527</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.588238708496512</v>
+        <v>40.221836301690438</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5667934032777944E-2</v>
+        <v>6.4633494813218076E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5379,20 +5379,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4229792096346041</v>
+        <v>1.4191448904781674</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.3884305901703682</v>
+        <v>2.3814357315518375</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6740931878054166</v>
+        <v>1.6695822240919616</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0768961653655378</v>
+        <v>2.0708136796102936</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10445,8 +10445,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10539,11 +10539,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2123088.5021337867</v>
+        <v>2122295.0795135298</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29868393860460551</v>
+        <v>0.29894602849228624</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10564,7 +10564,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7042707836857955</v>
+        <v>1.7029972104722448</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12315,17 +12315,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5260027539072555E-2</v>
+        <v>2.4862116997825187E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5260027539072555E-2</v>
+        <v>2.4862116997825187E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5260027539072555E-2</v>
+        <v>2.4862116997825187E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12366,17 +12366,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5667934032777944E-2</v>
+        <v>6.4633494813218076E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5667934032777944E-2</v>
+        <v>6.4633494813218076E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5667934032777944E-2</v>
+        <v>6.4633494813218076E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12436,14 +12436,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90813371978094093</v>
+        <v>0.90603410014795094</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90813371978094093</v>
+        <v>0.90603410014795094</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12464,14 +12464,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.864235330736121</v>
+        <v>2.8492955763930179</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.864235330736121</v>
+        <v>2.8492955763930179</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12514,21 +12514,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>602004.01927046664</v>
+        <v>600612.17638382211</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.45150295801498025</v>
+        <v>0.45045907598048207</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.45150295801498025</v>
+        <v>0.45045907598048207</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.61663183955711975</v>
+        <v>0.61520617691685009</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12537,15 +12537,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>4270.5340325832367</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-4268.9380848407745</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2029001240749121E-3</v>
+        <v>-3.2017031634176854E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12556,17 +12556,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2127359.0361663699</v>
+        <v>2126564.0175983706</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3561912160321588</v>
+        <v>1.3556843917584123</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5955190776848927</v>
+        <v>1.5949228138334262</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12576,28 +12576,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>2725092.5214042533</v>
+        <f>C97+C98+$C$99</f>
+        <v>2722907.255897352</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6355319240370163</v>
+        <v>1.6341768292710359</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>1.8044912739230641</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>1.8029417645754766</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.924155204749431</v>
+        <v>1.9225609756129836</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0438191355757982</v>
+        <v>2.0421801866504907</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>2.2089480171179376</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>2.2069272875868586</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12638,27 +12638,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1898708.4651537314</v>
+        <v>1888804.8661951651</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2104264952321919</v>
+        <v>1.2041129516852989</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4240311708614022</v>
+        <v>1.4166034725709398</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4240311708614022</v>
+        <v>1.4166034725709398</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4240311708614022</v>
+        <v>1.4166034725709398</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9448443136131377</v>
+        <v>1.9347000716337281</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12699,27 +12699,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2152348.5655665146</v>
+        <v>2146363.7597263805</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4229792096346041</v>
+        <v>1.4191448904781674</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.614261222392233</v>
+        <v>1.6097726185732082</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.6740931878054166</v>
+        <v>1.6695822240919616</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.7339251532186002</v>
+        <v>1.7293918296107154</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.0768961653655378</v>
+        <v>2.0708136796102936</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50C12A3-0AE9-405C-BD82-C918B698F8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E728B544-5618-4706-8193-E3DE1D1B6DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4633494813218076E-2</v>
+        <v>6.6356162389119483E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2600.000325</v>
+        <v>2533.33365</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.80273487004770527</v>
+        <v>0.78189512762005464</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>40.221836301690438</v>
+        <v>39.177640092243919</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4633494813218076E-2</v>
+        <v>6.6356162389119483E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5379,20 +5379,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4191448904781674</v>
+        <v>1.4251191844044504</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.3814357315518375</v>
+        <v>2.3923956755747651</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6695822240919616</v>
+        <v>1.6766108051817064</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.0708136796102936</v>
+        <v>2.080344065717187</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10539,11 +10539,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2122295.0795135298</v>
+        <v>2122992.1027830443</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29894602849228624</v>
+        <v>0.29871578203125293</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10564,7 +10564,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7029972104722448</v>
+        <v>1.7041160215390043</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12315,17 +12315,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4862116997825187E-2</v>
+        <v>2.5524763555065996E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4862116997825187E-2</v>
+        <v>2.5524763555065996E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4862116997825187E-2</v>
+        <v>2.5524763555065996E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12366,17 +12366,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4633494813218076E-2</v>
+        <v>6.6356162389119483E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4633494813218076E-2</v>
+        <v>6.6356162389119483E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4633494813218076E-2</v>
+        <v>6.6356162389119483E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12436,14 +12436,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90603410014795094</v>
+        <v>0.90926550022235841</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90603410014795094</v>
+        <v>0.90926550022235841</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12464,14 +12464,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8492955763930179</v>
+        <v>2.8733656975844428</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8492955763930179</v>
+        <v>2.8733656975844428</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12514,21 +12514,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>600612.17638382211</v>
+        <v>602754.27923750028</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.45045907598048207</v>
+        <v>0.45206565291991863</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.45045907598048207</v>
+        <v>0.45206565291991863</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.61520617691685009</v>
+        <v>0.61740032974789738</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12538,14 +12538,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4268.9380848407745</v>
+        <v>-4270.3401279449463</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.2017031634176854E-3</v>
+        <v>-3.2027546956143729E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12556,17 +12556,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2126564.0175983706</v>
+        <v>2127262.4429109893</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3556843917584123</v>
+        <v>1.3561296378395509</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5949228138334262</v>
+        <v>1.5954466327524128</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12577,27 +12577,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>2722907.255897352</v>
+        <v>2725746.3820205447</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6341768292710359</v>
+        <v>1.6359533784922431</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.8029417645754766</v>
+        <v>1.804992536063855</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.9225609756129836</v>
+        <v>1.924651033520286</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0421801866504907</v>
+        <v>2.044309530976717</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.2069272875868586</v>
+        <v>2.2096442078046961</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12638,27 +12638,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1888804.8661951651</v>
+        <v>1904761.0072192647</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2041129516852989</v>
+        <v>1.2142849903166575</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4166034725709398</v>
+        <v>1.4285705768431265</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4166034725709398</v>
+        <v>1.4285705768431265</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4166034725709398</v>
+        <v>1.4285705768431265</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9347000716337281</v>
+        <v>1.9510439236296782</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12699,27 +12699,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2146363.7597263805</v>
+        <v>2155709.0114015802</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4191448904781674</v>
+        <v>1.4251191844044504</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.6097726185732082</v>
+        <v>1.6167815564534909</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.6695822240919616</v>
+        <v>1.6766108051817064</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.7293918296107154</v>
+        <v>1.7364400539099218</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.0708136796102936</v>
+        <v>2.080344065717187</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E728B544-5618-4706-8193-E3DE1D1B6DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB91007-B07E-4673-A3CF-92208CBAC34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6356162389119483E-2</v>
+        <v>6.5658818367454741E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2533.33365</v>
+        <v>2560.0003200000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5180,10 +5180,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5230,7 +5230,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78189512762005464</v>
+        <v>0.79019941798609783</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.177640092243919</v>
+        <v>39.593734895357237</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6356162389119483E-2</v>
+        <v>6.5658818367454741E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5379,20 +5379,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4251191844044504</v>
+        <v>1.3535822141388751</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.3923956755747651</v>
+        <v>2.2250176603740472</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6766108051817064</v>
+        <v>1.5924496636927943</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.080344065717187</v>
+        <v>1.9347979655426499</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10539,11 +10539,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2122992.1027830443</v>
+        <v>2122793.7865389981</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29871578203125293</v>
+        <v>0.29878129148460142</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10564,7 +10564,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7041160215390043</v>
+        <v>1.7037976613306642</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12315,17 +12315,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5524763555065996E-2</v>
+        <v>2.5256521079481696E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5524763555065996E-2</v>
+        <v>2.5256521079481696E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5524763555065996E-2</v>
+        <v>2.5256521079481696E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12366,17 +12366,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6356162389119483E-2</v>
+        <v>6.5658818367454741E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6356162389119483E-2</v>
+        <v>6.5658818367454741E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6356162389119483E-2</v>
+        <v>6.5658818367454741E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12436,14 +12436,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90926550022235841</v>
+        <v>0.82918526630944001</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.90926550022235841</v>
+        <v>0.82918526630944001</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12464,14 +12464,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8733656975844428</v>
+        <v>2.6151663789789543</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8733656975844428</v>
+        <v>2.6151663789789543</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12514,21 +12514,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>602754.27923750028</v>
+        <v>549668.9002568312</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.45206565291991863</v>
+        <v>0.41225162366117046</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.45206565291991863</v>
+        <v>0.41225162366117046</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.61740032974789738</v>
+        <v>0.54828028427915509</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12538,14 +12538,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4270.3401279449463</v>
+        <v>-4269.9412202835083</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.2027546956143729E-3</v>
+        <v>-3.2024555149056918E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12556,17 +12556,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2127262.4429109893</v>
+        <v>2127063.7277592816</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3561296378395509</v>
+        <v>1.3560029569461725</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5954466327524128</v>
+        <v>1.5952975964072618</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12577,27 +12577,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>2725746.3820205447</v>
+        <v>2672462.6867958293</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6359533784922431</v>
+        <v>1.6019945280995345</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.804992536063855</v>
+        <v>1.7650521250924371</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.924651033520286</v>
+        <v>1.8846994448229817</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.044309530976717</v>
+        <v>2.0043467645535262</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.2096442078046961</v>
+        <v>2.140375425171511</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12638,27 +12638,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1904761.0072192647</v>
+        <v>1733600.0601167895</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2142849903166575</v>
+        <v>1.1051699001782158</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4285705768431265</v>
+        <v>1.3001998825626069</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4285705768431265</v>
+        <v>1.3001998825626069</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4285705768431265</v>
+        <v>1.3001998825626069</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9510439236296782</v>
+        <v>1.7292205059137891</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12699,27 +12699,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2155709.0114015802</v>
+        <v>2043501.5938743632</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.4251191844044504</v>
+        <v>1.3535822141388751</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.6167815564534909</v>
+        <v>1.5326260038275219</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.6766108051817064</v>
+        <v>1.5924496636927943</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.7364400539099218</v>
+        <v>1.6522733235580667</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.080344065717187</v>
+        <v>1.9347979655426499</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB91007-B07E-4673-A3CF-92208CBAC34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8ED161-19F1-4E00-A40B-A6A959A25FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4248,7 +4259,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5658818367454741E-2</v>
+        <v>6.5942898458211205E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5044,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -5085,7 +5096,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>2560.0003200000001</v>
+        <v>2546.6669849999998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5134,7 +5145,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5301,7 +5312,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.79019941798609783</v>
+        <v>0.78679526185062765</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,7 +5328,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.593734895357237</v>
+        <v>39.423166235722285</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5349,7 +5360,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5658818367454741E-2</v>
+        <v>6.5942898458211205E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5379,20 +5390,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3535822141388751</v>
+        <v>1.3531877912633772</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2250176603740472</v>
+        <v>2.2244983596249468</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5924496636927943</v>
+        <v>1.5919856367804439</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9347979655426499</v>
+        <v>1.934346399673867</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10539,11 +10550,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2122793.7865389981</v>
+        <v>2120874.2334820628</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29878129148460142</v>
+        <v>0.29941537404318352</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10564,7 +10575,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7037976613306642</v>
+        <v>1.7007177094967811</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12315,17 +12326,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5256521079481696E-2</v>
+        <v>2.5365796192541121E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5256521079481696E-2</v>
+        <v>2.5365796192541121E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5256521079481696E-2</v>
+        <v>2.5365796192541121E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12366,17 +12377,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5658818367454741E-2</v>
+        <v>6.5942898458211205E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5658818367454741E-2</v>
+        <v>6.5942898458211205E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5658818367454741E-2</v>
+        <v>6.5942898458211205E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12436,14 +12447,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82918526630944001</v>
+        <v>0.82887704958478325</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82918526630944001</v>
+        <v>0.82887704958478325</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12464,14 +12475,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6151663789789543</v>
+        <v>2.6162860149133547</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6151663789789543</v>
+        <v>2.6162860149133547</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12514,21 +12525,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>549668.9002568312</v>
+        <v>549464.58265138592</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41225162366117046</v>
+        <v>0.41209838547624128</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41225162366117046</v>
+        <v>0.41209838547624128</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54828028427915509</v>
+        <v>0.54807648283660593</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12538,14 +12549,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4269.9412202835083</v>
+        <v>-4266.0800921916962</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.2024555149056918E-3</v>
+        <v>-3.1995596691988134E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12556,17 +12567,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2127063.7277592816</v>
+        <v>2125140.3135742545</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3560029569461725</v>
+        <v>1.3547767805564896</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5952975964072618</v>
+        <v>1.5938550359488113</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12577,27 +12588,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>2672462.6867958293</v>
+        <v>2670338.8161334489</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6019945280995345</v>
+        <v>1.6007325239507393</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7650521250924371</v>
+        <v>1.7636756063635322</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8846994448229817</v>
+        <v>1.8832147340596932</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0043467645535262</v>
+        <v>2.002753861755854</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.140375425171511</v>
+        <v>2.1387319591162184</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12638,27 +12649,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1733600.0601167895</v>
+        <v>1734342.2694610162</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1051699001782158</v>
+        <v>1.1056430585760153</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3001998825626069</v>
+        <v>1.3007565395011946</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3001998825626069</v>
+        <v>1.3007565395011946</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3001998825626069</v>
+        <v>1.3007565395011946</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7292205059137891</v>
+        <v>1.7299608402315156</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12699,27 +12710,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2043501.5938743632</v>
+        <v>2042955.0192791631</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3535822141388751</v>
+        <v>1.3531877912633772</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5326260038275219</v>
+        <v>1.5322160729323633</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5924496636927943</v>
+        <v>1.5919856367804439</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.6522733235580667</v>
+        <v>1.6517552006285243</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9347979655426499</v>
+        <v>1.934346399673867</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8ED161-19F1-4E00-A40B-A6A959A25FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90947DD6-E708-4E57-ABF3-7374773A17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,13 +123,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +897,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1543,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2183,6 +2198,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3613,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3650,24 +3675,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>1333333500</v>
@@ -3675,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3699,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3707,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3724,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3853,7 +3878,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>897327</v>
@@ -3879,7 +3904,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>613104</v>
@@ -3905,7 +3930,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3921,7 +3946,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C29" s="150">
         <v>1003</v>
@@ -3947,7 +3972,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>2199</v>
@@ -3967,7 +3992,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <v>-169280</v>
@@ -3987,7 +4012,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>35974</v>
@@ -4007,7 +4032,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>15312</v>
@@ -4043,7 +4068,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4059,7 +4084,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4099,7 +4124,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4171,7 +4196,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4195,7 +4220,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4219,7 +4244,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4237,7 +4262,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.1178</v>
@@ -4255,11 +4280,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5942898458211205E-2</v>
+        <v>6.6294100364049285E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4304,21 +4329,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>2385307</v>
@@ -4330,7 +4355,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>0</v>
@@ -4342,7 +4367,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>180994</v>
@@ -4355,7 +4380,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>0</v>
@@ -4367,7 +4392,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>253051</v>
@@ -4379,7 +4404,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4392,7 +4417,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4404,7 +4429,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>158110</v>
@@ -4417,7 +4442,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -4427,12 +4452,12 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -4441,12 +4466,12 @@
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>5912</v>
@@ -4459,7 +4484,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120">
         <v>0</v>
@@ -4472,7 +4497,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>279425</v>
@@ -4485,7 +4510,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>126127</v>
@@ -4498,7 +4523,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -4511,7 +4536,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4524,7 +4549,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -4536,7 +4561,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>1500</v>
@@ -4545,12 +4570,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -4559,12 +4584,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -4574,12 +4599,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>193915</v>
@@ -4592,7 +4617,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4605,7 +4630,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>9704</v>
@@ -4617,7 +4642,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>76124</v>
@@ -4630,7 +4655,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4640,13 +4665,13 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>13416</v>
@@ -4654,13 +4679,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4674,13 +4699,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>20583</v>
@@ -4688,19 +4713,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>30946</v>
@@ -4708,7 +4733,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>3023302</v>
@@ -4716,19 +4741,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4736,10 +4761,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4747,18 +4772,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4767,20 +4792,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4798,7 +4823,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4819,7 +4844,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4840,7 +4865,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4858,7 +4883,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4879,7 +4904,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4897,7 +4922,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4915,7 +4940,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5043,62 +5068,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>2546.6669849999998</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>2533.33365</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5121,16 +5146,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5145,7 +5170,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5155,40 +5180,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5201,29 +5226,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5233,12 +5258,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5248,29 +5273,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.55541924442229906</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5278,7 +5303,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5289,58 +5314,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.8148224946381651E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78679526185062765</v>
+        <v>0.78262710821480053</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.208277497005729E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.423166235722285</v>
+        <v>39.214316714571453</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.2789175437999239E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5349,18 +5374,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.9862433731434744E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5942898458211205E-2</v>
+        <v>6.6294100364049285E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5370,62 +5395,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3531877912633772</v>
+        <v>1.3542989564959451</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.2244983596249468</v>
+        <v>2.226484631147724</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5919856367804439</v>
-      </c>
-      <c r="G29" s="274">
+        <v>1.5932928899952294</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.934346399673867</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>1.9360735923023689</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5435,25 +5460,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5463,7 +5488,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5473,14 +5498,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5490,7 +5515,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5505,14 +5530,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6465,12 +6490,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6497,16 +6522,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6524,7 +6549,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6557,7 +6582,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6568,7 +6593,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6720,7 +6745,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6771,7 +6796,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6822,7 +6847,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6873,7 +6898,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6924,7 +6949,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6975,7 +7000,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7026,7 +7051,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7077,7 +7102,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7128,7 +7153,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7179,7 +7204,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7230,7 +7255,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7281,7 +7306,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7332,7 +7357,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7383,7 +7408,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7434,7 +7459,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7485,7 +7510,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7536,7 +7561,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7587,7 +7612,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7638,7 +7663,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7791,7 +7816,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7842,7 +7867,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7944,7 +7969,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8148,7 +8173,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8199,7 +8224,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8250,7 +8275,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8301,7 +8326,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8352,7 +8377,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8403,7 +8428,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8421,7 +8446,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8472,7 +8497,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8523,7 +8548,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8574,7 +8599,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8625,7 +8650,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8676,7 +8701,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8727,7 +8752,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8778,7 +8803,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8795,50 +8820,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.11203000770618693</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>2.5859331358171711</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>2.0389024661812667</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8847,11 +8872,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>9.7865479067953717E-2</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.11203000770618693</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8898,167 +8923,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>9.7865479067953717E-2</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-1.0019710323355846</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>0.15765272743621306</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.1751627786077426</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.21060858391144721</v>
-      </c>
-      <c r="E54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.21276976631405353</v>
-      </c>
-      <c r="F54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.84857949978181479</v>
-      </c>
-      <c r="G54" s="156">
-        <f t="shared" si="44"/>
-        <v>0.98878596160178012</v>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>2.369393217447572</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.82375007799368372</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.78735209922197424</v>
+      </c>
+      <c r="E55" s="156">
         <f t="shared" si="45"/>
-        <v>-1.2060310581437341</v>
-      </c>
-      <c r="E55" s="157">
+        <v>0.78679909685756511</v>
+      </c>
+      <c r="F55" s="156">
         <f t="shared" si="45"/>
-        <v>5.3942585015762292</v>
-      </c>
-      <c r="F55" s="157">
+        <v>0.14969617263341631</v>
+      </c>
+      <c r="G55" s="156">
         <f t="shared" si="45"/>
-        <v>0.92325313885928983</v>
-      </c>
-      <c r="G55" s="157">
+        <v>1.0653738992249997E-2</v>
+      </c>
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>20.080950024740229</v>
-      </c>
-      <c r="H55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9066,112 +9092,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.2450811226833175E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>2.369393217447572</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>-4.3070319908169882E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v>-1.2060310581437341</v>
+      </c>
+      <c r="E56" s="157">
         <f t="shared" si="46"/>
-        <v>2.0056451512626985E-2</v>
-      </c>
-      <c r="F56" s="153">
+        <v>5.3942585015762292</v>
+      </c>
+      <c r="F56" s="157">
         <f t="shared" si="46"/>
-        <v>9.3355027935918562E-3</v>
-      </c>
-      <c r="G56" s="153">
+        <v>0.92325313885928983</v>
+      </c>
+      <c r="G56" s="157">
         <f t="shared" si="46"/>
-        <v>1.4735016114883846E-3</v>
-      </c>
-      <c r="H56" s="153" t="str">
+        <v>20.080950024740229</v>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.2450811226833175E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-4.3070319908169882E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>2.0056451512626985E-2</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>9.3355027935918562E-3</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.4735016114883846E-3</v>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>4.8753437887604978</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>3.3811375773905486E-2</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>4.7279796654279974E-4</v>
+      </c>
+      <c r="E60" s="274">
+        <f t="shared" si="50"/>
+        <v>3.0008475503162126E-2</v>
+      </c>
+      <c r="F60" s="274">
+        <f t="shared" si="50"/>
+        <v>1.1545980515259548</v>
+      </c>
+      <c r="G60" s="274">
+        <f t="shared" si="50"/>
+        <v>15.355674777089316</v>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>2.6645369863811157E-2</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>-7.1122018435571159E-3</v>
+      </c>
+      <c r="E61" s="274">
+        <f t="shared" si="51"/>
+        <v>2.9418445869993756E-2</v>
+      </c>
+      <c r="F61" s="274">
+        <f t="shared" si="51"/>
+        <v>1.143918992575127</v>
+      </c>
+      <c r="G61" s="274">
+        <f t="shared" si="51"/>
+        <v>15.333081456853559</v>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9734,7 +9950,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10417,6 +10635,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10456,8 +10675,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10475,7 +10694,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10490,7 +10709,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10504,7 +10723,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10514,7 +10733,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10532,10 +10751,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10544,22 +10763,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2120874.2334820628</v>
+        <f>(E49-I49-E53)</f>
+        <v>1983621.5</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29941537404318352</v>
+        <v>0.34475382619185724</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10569,20 +10789,21 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7007177094967811</v>
+        <v>1.5907546738002543</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10600,7 +10821,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10619,32 +10840,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10661,7 +10882,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10672,7 +10893,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10689,7 +10910,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10700,7 +10921,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10717,7 +10938,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10728,7 +10949,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10745,7 +10966,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10756,7 +10977,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10773,7 +10994,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10783,7 +11004,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10805,7 +11026,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10827,7 +11048,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10848,7 +11069,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10873,7 +11094,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10900,7 +11121,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10921,7 +11142,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10938,7 +11159,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10950,13 +11171,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10978,7 +11199,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10998,7 +11219,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -11007,7 +11228,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11027,7 +11248,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11040,7 +11261,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11060,7 +11281,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11106,7 +11327,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11115,7 +11336,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11131,7 +11352,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11141,7 +11362,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11158,7 +11379,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11168,7 +11389,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11185,7 +11406,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11195,7 +11416,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11215,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11225,7 +11446,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11242,7 +11463,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11252,7 +11473,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11278,7 +11499,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11305,7 +11526,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11332,7 +11553,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11353,7 +11574,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11374,7 +11595,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11395,7 +11616,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11416,7 +11637,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11433,7 +11654,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11451,7 +11672,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11470,7 +11691,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11489,7 +11710,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11506,7 +11727,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11519,7 +11740,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11536,7 +11757,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11549,7 +11770,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11566,7 +11787,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11593,7 +11814,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11609,14 +11830,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11633,7 +11854,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11663,7 +11884,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11674,14 +11895,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11689,30 +11910,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11729,11 +11950,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11743,7 +11964,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11764,7 +11985,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11785,7 +12006,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11806,7 +12027,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11821,7 +12042,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11852,11 +12073,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11866,7 +12087,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11887,7 +12108,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11902,7 +12123,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11924,21 +12145,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11948,23 +12169,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11985,7 +12206,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -12015,7 +12236,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12036,7 +12257,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12066,7 +12287,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12096,7 +12317,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12127,7 +12348,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12154,12 +12375,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12189,7 +12410,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12219,7 +12440,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12249,7 +12470,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12270,7 +12491,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12301,7 +12522,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12322,28 +12543,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5365796192541121E-2</v>
+        <v>2.5500890587452592E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5365796192541121E-2</v>
+        <v>2.5500890587452592E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5365796192541121E-2</v>
+        <v>2.5500890587452592E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12373,21 +12594,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5942898458211205E-2</v>
+        <v>6.6294100364049285E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5942898458211205E-2</v>
+        <v>6.6294100364049285E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5942898458211205E-2</v>
+        <v>6.6294100364049285E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12404,29 +12625,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12443,24 +12664,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82887704958478325</v>
+        <v>0.8294749511959828</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82887704958478325</v>
+        <v>0.8294749511959828</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12471,18 +12692,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6162860149133547</v>
+        <v>2.6207622921782954</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6162860149133547</v>
+        <v>2.6207622921782954</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12501,114 +12722,114 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>549464.58265138592</v>
+        <v>549860.9330623775</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41209838547624128</v>
+        <v>0.41239564824732705</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41209838547624128</v>
+        <v>0.41239564824732705</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54807648283660593</v>
+        <v>0.54847183195661442</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4266.0800921916962</v>
+        <v>-4266.3461363315582</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.1995596691988134E-3</v>
+        <v>-3.1997592022787683E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2125140.3135742545</v>
+        <v>2125272.8429957828</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3547767805564896</v>
+        <v>1.354861268052153</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5938550359488113</v>
+        <v>1.593954433002533</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>2670338.8161334489</v>
+        <v>2670867.4299218287</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6007325239507393</v>
+        <v>1.6010631786365326</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7636756063635322</v>
+        <v>1.7640571570972012</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8832147340596932</v>
+        <v>1.8836037395723912</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.002753861755854</v>
+        <v>2.0031503220475813</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.1387319591162184</v>
+        <v>2.1392265057568687</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12618,58 +12839,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1734342.2694610162</v>
+        <v>1737309.6043877639</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1056430585760153</v>
+        <v>1.1075347343553577</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3007565395011946</v>
+        <v>1.3029820404180679</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3007565395011946</v>
+        <v>1.3029820404180679</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3007565395011946</v>
+        <v>1.3029820404180679</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7299608402315156</v>
+        <v>1.732920678847869</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12679,58 +12900,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2042955.0192791631</v>
+        <v>2044693.0539301126</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3531877912633772</v>
+        <v>1.3542989564959451</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5322160729323633</v>
+        <v>1.5335195987576347</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5919856367804439</v>
+        <v>1.5932928899952294</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.6517552006285243</v>
+        <v>1.6530661812328247</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.934346399673867</v>
+        <v>1.9360735923023689</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12739,7 +12960,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12748,6 +12969,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90947DD6-E708-4E57-ABF3-7374773A17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88BF6226-976D-442F-A57F-2C28F0EB64EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.55541924442229906</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37949349616392825</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8148224946381651E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.208277497005729E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2789175437999239E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9862433731434744E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1333333500</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3946,7 +3109,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>1003</v>
@@ -4084,7 +3247,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4220,7 +3383,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4262,7 +3425,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.1178</v>
@@ -4280,11 +3443,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6294100364049285E-2</v>
+        <v>6.6993089753685287E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4329,13 +3492,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4404,7 +3567,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4417,7 +3580,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4536,7 +3699,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4549,7 +3712,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -4733,7 +3896,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>3023302</v>
@@ -4753,7 +3916,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4761,10 +3924,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4774,16 +3937,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4792,10 +3955,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4844,7 +4007,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4865,7 +4028,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4883,7 +4046,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4922,7 +4085,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4940,7 +4103,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5026,8 +4189,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5068,62 +4231,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>2533.33365</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>2506.66698</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5146,16 +4309,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5170,7 +4333,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5180,40 +4343,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5226,29 +4389,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5258,12 +4421,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5271,9 +4434,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5281,91 +4444,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.55541924442229906</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>3.3811375773905486E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.37949349616392825</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.82375007799368372</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.8148224946381651E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.44019362596109335</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>6.3272436919134561E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78262710821480053</v>
+        <v>0.77446136982752822</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.208277497005729E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.214316714571453</v>
+        <v>38.805164197407507</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>1.2789175437999239E-2</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5374,18 +4537,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>4.9862433731434744E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>1.2789175437999239E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6294100364049285E-2</v>
+        <v>6.6993089753685287E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5395,62 +4558,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3542989564959451</v>
+        <v>1.3562194150857825</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.226484631147724</v>
+        <v>2.2299599160981964</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5932928899952294</v>
-      </c>
-      <c r="G29" s="278">
+        <v>1.5955522530420969</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9360735923023689</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>1.9390955792158233</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5460,7 +4623,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5471,14 +4634,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5488,7 +4651,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5498,14 +4661,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5515,7 +4678,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5530,14 +4693,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6481,7 +5644,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6495,7 +5657,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6522,16 +5684,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6549,7 +5711,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6582,7 +5744,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6949,7 +6111,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -7000,7 +6162,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7051,7 +6213,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7102,7 +6264,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7204,7 +6366,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7357,7 +6519,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7867,7 +7029,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8377,7 +7539,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8428,7 +7590,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8497,7 +7659,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8701,7 +7863,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8803,7 +7965,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8821,27 +7983,27 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>2.5859331358171711</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.44019362596109335</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>2.0389024661812667</v>
-      </c>
-      <c r="E50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>0.40429673471749017</v>
+      </c>
+      <c r="E50" s="272">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
+        <v>0.50917806267601273</v>
+      </c>
+      <c r="F50" s="272">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
+        <v>1.0287665950664771</v>
+      </c>
+      <c r="G50" s="272">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v>1.1136771822092058</v>
       </c>
       <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8872,7 +8034,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8923,7 +8085,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8974,7 +8136,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -9025,7 +8187,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9042,7 +8204,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9242,15 +8404,15 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9292,7 +8454,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9342,7 +8504,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10796,7 +9958,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.5907546738002543</v>
+        <v>1.5906058775192919</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10846,7 +10008,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -11004,7 +10166,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11416,7 +10578,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11884,7 +11046,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11898,11 +11060,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11913,11 +11075,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11929,11 +11091,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11950,7 +11112,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -12027,7 +11189,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12073,7 +11235,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12108,7 +11270,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12147,19 +11309,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12169,18 +11331,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12257,7 +11419,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12287,7 +11449,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12317,7 +11479,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12380,7 +11542,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12410,7 +11572,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12491,7 +11653,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12522,7 +11684,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12543,28 +11705,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5500890587452592E-2</v>
+        <v>2.5769765975292742E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5500890587452592E-2</v>
+        <v>2.5769765975292742E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5500890587452592E-2</v>
+        <v>2.5769765975292742E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12594,21 +11756,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6294100364049285E-2</v>
+        <v>6.6993089753685287E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6294100364049285E-2</v>
+        <v>6.6993089753685287E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6294100364049285E-2</v>
+        <v>6.6993089753685287E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12630,24 +11792,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12664,24 +11826,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.8294749511959828</v>
+        <v>0.83048522961211391</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.8294749511959828</v>
+        <v>0.83048522961211391</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12692,18 +11854,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6207622921782954</v>
+        <v>2.6291175771032562</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6207622921782954</v>
+        <v>2.6291175771032562</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12722,14 +11884,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12746,21 +11908,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>549860.9330623775</v>
+        <v>550530.64904565772</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41239564824732705</v>
+        <v>0.41289793517200146</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41239564824732705</v>
+        <v>0.41289793517200146</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54847183195661442</v>
+        <v>0.54913985605171545</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12770,14 +11932,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4266.3461363315582</v>
+        <v>-4265.9470701217651</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.1997592022787683E-3</v>
+        <v>-3.1994599026588361E-3</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12788,17 +11950,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2125272.8429957828</v>
+        <v>2125074.0488634906</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.354861268052153</v>
+        <v>1.3547345368086581</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.593954433002533</v>
+        <v>1.5938053374219507</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12809,27 +11971,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>2670867.4299218287</v>
+        <v>2671338.7508390266</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.6010631786365326</v>
+        <v>1.60137315052695</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7640571570972012</v>
+        <v>1.7644330120780007</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8836037395723912</v>
+        <v>1.883968412384647</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0031503220475813</v>
+        <v>2.0035038126912932</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.1392265057568687</v>
+        <v>2.1397457335710075</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12839,21 +12001,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12866,31 +12028,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1737309.6043877639</v>
+        <v>1742848.3427887447</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1075347343553577</v>
+        <v>1.1110656796446148</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3029820404180679</v>
+        <v>1.3071360936995469</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3029820404180679</v>
+        <v>1.3071360936995469</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3029820404180679</v>
+        <v>1.3071360936995469</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.732920678847869</v>
+        <v>1.7384454248606394</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12900,21 +12062,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12927,31 +12089,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2044693.0539301126</v>
+        <v>2047712.9931491241</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3542989564959451</v>
+        <v>1.3562194150857825</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.5335195987576347</v>
+        <v>1.5357845528887739</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5932928899952294</v>
+        <v>1.5955522530420969</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.6530661812328247</v>
+        <v>1.6553199531954199</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9360735923023689</v>
+        <v>1.9390955792158233</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12960,7 +12122,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88BF6226-976D-442F-A57F-2C28F0EB64EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B571390-B1D7-46DF-98B5-9BB732925FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>1333333500</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3109,7 +3129,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>1003</v>
@@ -3213,9 +3233,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3231,7 +3251,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3247,7 +3267,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3262,10 +3282,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>734909</v>
       </c>
@@ -3285,9 +3306,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3358,10 +3379,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>2824568</v>
       </c>
@@ -3383,9 +3405,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>7297</v>
       </c>
@@ -3407,7 +3429,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3425,7 +3447,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.1178</v>
@@ -3443,11 +3465,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6993089753685287E-2</v>
+        <v>6.5936729895506849E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3492,13 +3514,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3518,7 +3540,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>0</v>
@@ -3530,7 +3552,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>180994</v>
@@ -3567,7 +3589,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3580,7 +3602,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3620,7 +3642,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -3699,7 +3721,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3712,7 +3734,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -3767,7 +3789,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>193915</v>
@@ -3896,7 +3918,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>3023302</v>
@@ -3916,7 +3938,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3924,10 +3946,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3935,7 +3957,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3943,10 +3965,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3968,7 +3990,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4007,7 +4029,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4028,7 +4050,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4046,7 +4068,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4085,7 +4107,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4103,7 +4125,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4126,28 +4148,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4189,8 +4216,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4231,7 +4258,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4243,15 +4270,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4271,7 +4298,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4284,7 +4311,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>2506.66698</v>
+        <v>2546.6669849999998</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4318,7 +4345,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4333,7 +4360,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4343,40 +4370,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4389,29 +4416,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4421,12 +4448,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4436,7 +4463,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4444,21 +4471,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="276">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>3.3811375773905486E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4466,69 +4493,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.82375007799368372</v>
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.44019362596109335</v>
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>6.3272436919134561E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.77446136982752822</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.208277497005729E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>38.805164197407507</v>
+        <v>39.426854381514694</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4537,18 +4564,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.2789175437999239E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6993089753685287E-2</v>
+        <v>6.5936729895506849E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4558,40 +4585,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3562194150857825</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>2.2299599160981964</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5955522530420969</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9390955792158233</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4599,21 +4626,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4623,25 +4650,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4651,7 +4678,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4661,14 +4688,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4678,7 +4705,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4693,14 +4720,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5600,27 +5627,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5652,12 +5679,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5684,16 +5711,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5711,7 +5738,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5744,7 +5771,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5755,7 +5782,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6111,7 +6138,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6162,7 +6189,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6213,7 +6240,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6264,7 +6291,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6366,7 +6393,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6519,7 +6546,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6774,7 +6801,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6825,7 +6852,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6879,24 +6906,24 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>3670169</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>3578159</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>3559477</v>
       </c>
       <c r="E27" s="65">
-        <f t="shared" si="20"/>
-        <v>3474535</v>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
+        <v>3413258</v>
       </c>
       <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v>1654558</v>
+        <v>1603329</v>
       </c>
       <c r="G27" s="65">
         <f t="shared" si="20"/>
-        <v>1242193</v>
+        <v>1218998</v>
       </c>
       <c r="H27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6927,50 +6954,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>2983374</v>
+        <f>Fin_Analysis!C13</f>
+        <v>180994</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6978,50 +7005,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>180994</v>
+        <f>Fin_Analysis!C18</f>
+        <v>158110</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7029,101 +7056,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>158110</v>
-      </c>
-      <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v/>
-      </c>
-      <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
-        <v/>
-      </c>
-      <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
-        <v/>
-      </c>
-      <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
-        <v/>
+        <f>Inputs!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="199">
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>734909</v>
+      </c>
+      <c r="E30" s="199">
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v>677999</v>
+      </c>
+      <c r="F30" s="199">
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v>1352795</v>
+      </c>
+      <c r="G30" s="199">
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <v>1205068</v>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>611931</v>
+        <f>Fin_Analysis!I15</f>
+        <v>13416</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>734909</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>6202</v>
       </c>
       <c r="E31" s="199">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v>677999</v>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
+        <v>5517</v>
       </c>
       <c r="F31" s="199">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v>1352795</v>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
+        <v>301783</v>
       </c>
       <c r="G31" s="199">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
-        <v>1205068</v>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
+        <v>3225</v>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7131,101 +7158,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>30946</v>
+        <f>Fin_Analysis!I34</f>
+        <v>20583</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>18682</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>10412</v>
       </c>
       <c r="E32" s="199">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
-        <v>61277</v>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <v>9392</v>
       </c>
       <c r="F32" s="199">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
-        <v>51229</v>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <v>5096</v>
       </c>
       <c r="G32" s="199">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
-        <v>23195</v>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <v>6880</v>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>13416</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>6202</v>
-      </c>
-      <c r="E33" s="199">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v>5517</v>
-      </c>
-      <c r="F33" s="199">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v>301783</v>
-      </c>
-      <c r="G33" s="199">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v>3225</v>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>33999</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>16614</v>
+      </c>
+      <c r="E33" s="77">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v>14909</v>
+      </c>
+      <c r="F33" s="77">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v>306879</v>
+      </c>
+      <c r="G33" s="77">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v>10105</v>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7233,50 +7260,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>20583</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>10412</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>2824568</v>
       </c>
       <c r="E34" s="199">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
-        <v>9392</v>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <v>2735259</v>
       </c>
       <c r="F34" s="199">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
-        <v>5096</v>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <v>250534</v>
       </c>
       <c r="G34" s="199">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
-        <v>6880</v>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <v>13930</v>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7284,50 +7311,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>33999</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>16614</v>
-      </c>
-      <c r="E35" s="77">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v>14909</v>
-      </c>
-      <c r="F35" s="77">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v>306879</v>
-      </c>
-      <c r="G35" s="77">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v>10105</v>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>7297</v>
+      </c>
+      <c r="E35" s="199">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v>1498</v>
+      </c>
+      <c r="F35" s="199">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v>2853</v>
+      </c>
+      <c r="G35" s="199">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v>696</v>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7335,50 +7362,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>3027292</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>2824568</v>
-      </c>
-      <c r="E36" s="199">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v>2735259</v>
-      </c>
-      <c r="F36" s="199">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v>250534</v>
-      </c>
-      <c r="G36" s="199">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
-        <v>13930</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>2868641</v>
+      </c>
+      <c r="E36" s="199" t="str">
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
+        <v/>
+      </c>
+      <c r="F36" s="199" t="str">
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
+        <v/>
+      </c>
+      <c r="G36" s="199" t="str">
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
+        <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7386,272 +7413,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>3990</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>7297</v>
-      </c>
-      <c r="E37" s="199">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v>1498</v>
-      </c>
-      <c r="F37" s="199">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v>2853</v>
-      </c>
-      <c r="G37" s="199">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v>696</v>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>624759</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>690836</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>3045410</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>2868641</v>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.16361829121309177</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>1.9280987093897829E-3</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>624759</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>709518</v>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.16361829121309177</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>1.8773308076750696E-3</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.55541924442229906</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.5842954491724951</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.55491457230760188</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.56373982612619067</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.56638778894348862</v>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.37949349616392825</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.41418931342879145</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.39871532034748752</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.2682542237658872</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.28671564736786559</v>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.55541924442229906</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.5842954491724951</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.55491457230760188</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.56373982612619067</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.56638778894348862</v>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7659,50 +7686,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.37949349616392825</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.41418931342879145</v>
+        <f t="shared" si="37"/>
+        <v>5.9655559994967644E-4</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.39871532034748752</v>
+        <f t="shared" si="37"/>
+        <v>9.1173366750378854E-4</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.2682542237658872</v>
+        <f t="shared" si="37"/>
+        <v>1.5539134531893119E-3</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.28671564736786559</v>
+        <f t="shared" si="37"/>
+        <v>2.1613384974143452E-4</v>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7710,50 +7737,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.8148224946381651E-3</v>
+      </c>
+      <c r="D44" s="153">
+        <f t="shared" si="38"/>
+        <v>5.9448182613756862E-4</v>
+      </c>
+      <c r="E44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
-        <f t="shared" si="36"/>
+      <c r="F44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153">
-        <f t="shared" si="36"/>
+      <c r="G44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7761,50 +7788,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>6.208277497005729E-4</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>1.2789175437999239E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.9655559994967644E-4</v>
+        <f t="shared" si="39"/>
+        <v>1.4174935263694165E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>9.1173366750378854E-4</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.5539134531893119E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.1613384974143452E-4</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7812,221 +7839,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.8148224946381651E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>4.9862433731434744E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>5.9448182613756862E-4</v>
+        <f t="shared" si="40"/>
+        <v>-1.385073529106798E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>4.5458373677406808E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.16645203665473277</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.14668042983890439</v>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>1.2789175437999239E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>1.4174935263694165E-2</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>4.9862433731434744E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-1.385073529106798E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>4.5458373677406808E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.16645203665473277</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.14668042983890439</v>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.40641869578030704</v>
+      </c>
+      <c r="E48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.51831915430946029</v>
+      </c>
+      <c r="F48" s="272">
+        <f t="shared" si="41"/>
+        <v>1.0616373807247297</v>
+      </c>
+      <c r="G48" s="272">
+        <f t="shared" si="41"/>
+        <v>1.1348681458049972</v>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.11203000770618693</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.44019362596109335</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>0.40429673471749017</v>
-      </c>
-      <c r="E50" s="272">
-        <f t="shared" si="41"/>
-        <v>0.50917806267601273</v>
-      </c>
-      <c r="F50" s="272">
-        <f t="shared" si="41"/>
-        <v>1.0287665950664771</v>
-      </c>
-      <c r="G50" s="272">
-        <f t="shared" si="41"/>
-        <v>1.1136771822092058</v>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>9.7865479067953717E-2</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8034,522 +8061,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.11203000770618693</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-1.0019710323355846</v>
+      </c>
+      <c r="D51" s="153">
+        <f t="shared" si="44"/>
+        <v>0.15765272743621306</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>9.7865479067953717E-2</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-1.0019710323355846</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>0.15765272743621306</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.79148453550900877</v>
+      </c>
+      <c r="E53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.80092421961656579</v>
+      </c>
+      <c r="F53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.15447921169017712</v>
+      </c>
+      <c r="G53" s="156">
+        <f t="shared" si="45"/>
+        <v>1.0856457516747362E-2</v>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>2.369393217447572</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>-1.2060310581437341</v>
+      </c>
+      <c r="E54" s="157">
+        <f t="shared" si="46"/>
+        <v>5.3942585015762292</v>
+      </c>
+      <c r="F54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.92325313885928983</v>
+      </c>
+      <c r="G54" s="157">
+        <f t="shared" si="46"/>
+        <v>20.080950024740229</v>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.82375007799368372</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.78735209922197424</v>
-      </c>
-      <c r="E55" s="156">
-        <f t="shared" si="45"/>
-        <v>0.78679909685756511</v>
-      </c>
-      <c r="F55" s="156">
-        <f t="shared" si="45"/>
-        <v>0.14969617263341631</v>
-      </c>
-      <c r="G55" s="156">
-        <f t="shared" si="45"/>
-        <v>1.0653738992249997E-2</v>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.2450811226833175E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-4.3070319908169882E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>2.0056451512626985E-2</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>9.3355027935918562E-3</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.4735016114883846E-3</v>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>2.369393217447572</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>-1.2060310581437341</v>
-      </c>
-      <c r="E56" s="157">
-        <f t="shared" si="46"/>
-        <v>5.3942585015762292</v>
-      </c>
-      <c r="F56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.92325313885928983</v>
-      </c>
-      <c r="G56" s="157">
-        <f t="shared" si="46"/>
-        <v>20.080950024740229</v>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.2450811226833175E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-4.3070319908169882E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>2.0056451512626985E-2</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>9.3355027935918562E-3</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.4735016114883846E-3</v>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>4.8753437887604978</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>4.7279796654279974E-4</v>
+      </c>
+      <c r="E58" s="274">
+        <f t="shared" si="49"/>
+        <v>3.0008475503162126E-2</v>
+      </c>
+      <c r="F58" s="274">
+        <f t="shared" si="49"/>
+        <v>1.1545980515259548</v>
+      </c>
+      <c r="G58" s="274">
+        <f t="shared" si="49"/>
+        <v>15.355674777089316</v>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>-7.1122018435571159E-3</v>
+      </c>
+      <c r="E59" s="274">
+        <f t="shared" si="50"/>
+        <v>2.9418445869993756E-2</v>
+      </c>
+      <c r="F59" s="274">
+        <f t="shared" si="50"/>
+        <v>1.143918992575127</v>
+      </c>
+      <c r="G59" s="274">
+        <f t="shared" si="50"/>
+        <v>15.333081456853559</v>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>3.3811375773905486E-2</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>4.7279796654279974E-4</v>
-      </c>
-      <c r="E60" s="274">
-        <f t="shared" si="50"/>
-        <v>3.0008475503162126E-2</v>
-      </c>
-      <c r="F60" s="274">
-        <f t="shared" si="50"/>
-        <v>1.1545980515259548</v>
-      </c>
-      <c r="G60" s="274">
-        <f t="shared" si="50"/>
-        <v>15.355674777089316</v>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>2.6645369863811157E-2</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>-7.1122018435571159E-3</v>
-      </c>
-      <c r="E61" s="274">
-        <f t="shared" si="51"/>
-        <v>2.9418445869993756E-2</v>
-      </c>
-      <c r="F61" s="274">
-        <f t="shared" si="51"/>
-        <v>1.143918992575127</v>
-      </c>
-      <c r="G61" s="274">
-        <f t="shared" si="51"/>
-        <v>15.333081456853559</v>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9109,12 +9040,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9796,27 +9723,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9930,13 +9860,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>1983621.5</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>0.34475382619185724</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9956,9 +9886,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.5906058775192919</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10008,7 +9938,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10055,7 +9985,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10083,7 +10013,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10166,7 +10096,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10188,7 +10118,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10256,7 +10186,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10578,7 +10508,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10715,7 +10645,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11002,9 +10932,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11022,13 +10952,13 @@
         <f>MAX(D4,0)</f>
         <v>3990</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>3990</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11046,7 +10976,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11112,7 +11042,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11147,7 +11077,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11168,7 +11098,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11189,7 +11119,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11204,7 +11134,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11235,7 +11165,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11249,7 +11179,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11270,7 +11200,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11285,7 +11215,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11307,7 +11237,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11315,11 +11245,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11347,7 +11277,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11419,7 +11349,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11449,7 +11379,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11479,7 +11409,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11537,12 +11467,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11572,7 +11502,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11602,7 +11532,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11653,7 +11583,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11684,7 +11614,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11705,28 +11635,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5769765975292742E-2</v>
+        <v>2.5363423374420928E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5769765975292742E-2</v>
+        <v>2.5363423374420928E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5769765975292742E-2</v>
+        <v>2.5363423374420928E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11756,21 +11686,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6993089753685287E-2</v>
+        <v>6.5936729895506849E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6993089753685287E-2</v>
+        <v>6.5936729895506849E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6993089753685287E-2</v>
+        <v>6.5936729895506849E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11787,27 +11717,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11826,24 +11756,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.83048522961211391</v>
+        <v>0.82878992344970315</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.83048522961211391</v>
+        <v>0.82878992344970315</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11854,18 +11784,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6291175771032562</v>
+        <v>2.6159655833671596</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6291175771032562</v>
+        <v>2.6159655833671596</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11884,14 +11814,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11904,63 +11834,63 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>550530.64904565772</v>
+        <v>549406.82652763533</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41289793517200146</v>
+        <v>0.41205506838884298</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41289793517200146</v>
+        <v>0.41205506838884298</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54913985605171545</v>
+        <v>0.54801887262083049</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-4265.9470701217651</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.1994599026588361E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2125074.0488634906</v>
+        <v>2124941.5194419622</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3547345368086581</v>
+        <v>1.3546500493129947</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5938053374219507</v>
+        <v>1.5937059403682292</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -11969,29 +11899,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>2671338.7508390266</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.60137315052695</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7644330120780007</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>1.883968412384647</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0035038126912932</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.1397457335710075</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12001,21 +11931,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12028,31 +11958,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1742848.3427887447</v>
+        <v>1734129.8546210993</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1110656796446148</v>
+        <v>1.1055076441324951</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3071360936995469</v>
+        <v>1.3005972283911709</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3071360936995469</v>
+        <v>1.3005972283911709</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3071360936995469</v>
+        <v>1.3005972283911709</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7384454248606394</v>
+        <v>1.7297489620103532</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12062,21 +11992,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12089,31 +12019,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2047712.9931491241</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>1.3562194150857825</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>1.5357845528887739</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>1.5955522530420969</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>1.6553199531954199</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>1.9390955792158233</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12122,7 +12052,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B571390-B1D7-46DF-98B5-9BB732925FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7549AAD-2D1E-4347-8800-8C0C3F9B856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1333333500</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>243</v>
+      <c r="B15" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>241</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>240</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,489 +3045,493 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>1615585</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>1446638</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>1769157</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>1702154</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>1383402</v>
       </c>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>897327</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>845264</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>981731</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>959572</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>783542</v>
       </c>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>613104</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>599182</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>705390</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>456610</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>396643</v>
       </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="150">
+        <v>238</v>
+      </c>
+      <c r="C29" s="149">
         <v>1003</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>863</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>1613</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>2645</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>299</v>
       </c>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>2199</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>645</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-169280</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>-50846</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>35974</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>32106</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>15312</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>11600</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>642877</v>
+      </c>
+      <c r="D37" s="149">
         <v>734909</v>
       </c>
-      <c r="E37" s="150">
+      <c r="E37" s="149">
         <v>677999</v>
       </c>
-      <c r="F37" s="150">
+      <c r="F37" s="149">
         <v>1352795</v>
       </c>
-      <c r="G37" s="150">
+      <c r="G37" s="149">
         <v>1205068</v>
       </c>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>18682</v>
       </c>
-      <c r="E38" s="150">
+      <c r="E38" s="149">
         <v>61277</v>
       </c>
-      <c r="F38" s="150">
+      <c r="F38" s="149">
         <v>51229</v>
       </c>
-      <c r="G38" s="150">
+      <c r="G38" s="149">
         <v>23195</v>
       </c>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <v>6202</v>
       </c>
-      <c r="E39" s="150">
+      <c r="E39" s="149">
         <v>5517</v>
       </c>
-      <c r="F39" s="150">
+      <c r="F39" s="149">
         <v>301783</v>
       </c>
-      <c r="G39" s="150">
+      <c r="G39" s="149">
         <v>3225</v>
       </c>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>10412</v>
       </c>
-      <c r="E40" s="150">
+      <c r="E40" s="149">
         <v>9392</v>
       </c>
-      <c r="F40" s="150">
+      <c r="F40" s="149">
         <v>5096</v>
       </c>
-      <c r="G40" s="150">
+      <c r="G40" s="149">
         <v>6880</v>
       </c>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>3027292</v>
+      </c>
+      <c r="D41" s="149">
         <v>2824568</v>
       </c>
-      <c r="E41" s="150">
+      <c r="E41" s="149">
         <v>2735259</v>
       </c>
-      <c r="F41" s="150">
+      <c r="F41" s="149">
         <v>250534</v>
       </c>
-      <c r="G41" s="150">
+      <c r="G41" s="149">
         <v>13930</v>
       </c>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>3990</v>
+      </c>
+      <c r="D42" s="149">
         <v>7297</v>
       </c>
-      <c r="E42" s="150">
+      <c r="E42" s="149">
         <v>1498</v>
       </c>
-      <c r="F42" s="150">
+      <c r="F42" s="149">
         <v>2853</v>
       </c>
-      <c r="G42" s="150">
+      <c r="G42" s="149">
         <v>696</v>
       </c>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <v>2868641</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.1178</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="152">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5936729895506849E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>6.6580892273568185E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3602,7 +3614,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3636,7 +3648,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3650,7 +3662,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3671,10 +3683,10 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120">
+      <c r="C59" s="119">
         <v>0</v>
       </c>
-      <c r="D59" s="195">
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3734,7 +3746,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -3754,7 +3766,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3768,7 +3780,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3783,7 +3795,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3839,14 +3851,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3872,7 +3884,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3906,21 +3918,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214">
         <v>30946</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>267</v>
+      </c>
+      <c r="C83" s="214">
         <v>3023302</v>
       </c>
     </row>
@@ -3938,20 +3950,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>271</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3981,10 +3993,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3996,12 +4008,12 @@
         <f>C25</f>
         <v>1615585</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>1615585</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>1615585</v>
       </c>
@@ -4014,75 +4026,75 @@
         <f>C26</f>
         <v>897327</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>897327</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>897327</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>613104</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>613104</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>613104</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>1003</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>1003.0000000000001</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>20662</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>20662</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>20662</v>
       </c>
@@ -4095,12 +4107,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4113,12 +4125,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2932</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>2932</v>
       </c>
@@ -4127,16 +4139,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.1178</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.1178</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.1178</v>
       </c>
@@ -4217,7 +4229,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4269,11 +4281,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>1.91</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>1.89</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4311,7 +4323,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>2546.6669849999998</v>
+        <v>2520.0003149999998</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4321,11 +4333,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4347,11 +4359,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4359,8 +4371,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4369,10 +4381,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4380,7 +4392,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4388,13 +4400,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4403,12 +4415,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="174">
+        <v>235</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4418,7 +4430,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4429,7 +4441,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4437,13 +4449,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4453,129 +4465,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="175">
+        <v>236</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>3.3811375773905486E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.82375007799368372</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.44019362596109335</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.77925600405650919</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.426854381514694</v>
+        <v>39.045404157424557</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>2.5996778479834153</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5936729895506849E-2</v>
+        <v>6.6580892273568185E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4592,10 +4604,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4603,22 +4615,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>1.3538376008156507</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>2.2258564343420009</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>1.5927501186066479</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>1.9355273342104358</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4626,23 +4638,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4650,9 +4662,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4660,17 +4672,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4678,26 +4690,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4705,9 +4717,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4720,16 +4732,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5681,10 +5693,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5710,16 +5722,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5733,11 +5745,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5762,7 +5774,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5770,7 +5782,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5834,47 +5846,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1615585</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1446638</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>1769157</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1702154</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>1383402</v>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5936,47 +5948,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>897327</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>845264</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>981731</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>959572</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>783542</v>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5987,47 +5999,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>718258</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>601374</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>787426</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>742582</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>599860</v>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6038,47 +6050,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>613104</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>599182</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>705390</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>456610</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>396643</v>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6089,47 +6101,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6138,49 +6150,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2932</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>860</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6188,50 +6200,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>9.2075557257586215E-4</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>4.6370107344910601E-2</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.16800595010792208</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>0.14689656368864581</v>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6239,50 +6251,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>102222</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1332</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>82036</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>285972</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>203217</v>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6290,50 +6302,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>75.743243243243242</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.98376322590082399</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>-0.71313275425566136</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>0.40722478926467764</v>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6344,47 +6356,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-169280</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-50846</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6393,49 +6405,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="199">
+        <v>238</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>1003</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>863</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>1613</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>2645</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>299</v>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6446,47 +6458,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>2.2266856897037297E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>2.2193527337177648E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6497,47 +6509,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>35974</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>32106</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6546,49 +6558,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>9.4776814590380575E-3</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>8.0185920734834829E-3</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6599,47 +6611,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>15312</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>11600</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6650,47 +6662,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>80557</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-20037</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>80423</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>283327</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>202918</v>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6701,47 +6713,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-1.0388051468300985E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>3.4093780258055109E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>0.12483902749104958</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>0.11001032237917828</v>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6752,7 +6764,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>60417.75</v>
       </c>
@@ -6800,50 +6812,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233" t="str">
+      <c r="C25" s="230" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>-0.71614777271491947</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>0.3962635153116037</v>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6907,7 +6919,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>3670169</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6960,43 +6972,43 @@
         <f>Fin_Analysis!C13</f>
         <v>180994</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7011,43 +7023,43 @@
         <f>Fin_Analysis!C18</f>
         <v>158110</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7056,49 +7068,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>642877</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>734909</v>
       </c>
-      <c r="E30" s="199">
+      <c r="E30" s="198">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>677999</v>
       </c>
-      <c r="F30" s="199">
+      <c r="F30" s="198">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>1352795</v>
       </c>
-      <c r="G30" s="199">
+      <c r="G30" s="198">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>1205068</v>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7113,43 +7125,43 @@
         <f>Fin_Analysis!I15</f>
         <v>13416</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>6202</v>
       </c>
-      <c r="E31" s="199">
+      <c r="E31" s="198">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>5517</v>
       </c>
-      <c r="F31" s="199">
+      <c r="F31" s="198">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>301783</v>
       </c>
-      <c r="G31" s="199">
+      <c r="G31" s="198">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>3225</v>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7164,43 +7176,43 @@
         <f>Fin_Analysis!I34</f>
         <v>20583</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>10412</v>
       </c>
-      <c r="E32" s="199">
+      <c r="E32" s="198">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>9392</v>
       </c>
-      <c r="F32" s="199">
+      <c r="F32" s="198">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>5096</v>
       </c>
-      <c r="G32" s="199">
+      <c r="G32" s="198">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>6880</v>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7264,45 +7276,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>3027292</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>2824568</v>
       </c>
-      <c r="E34" s="199">
+      <c r="E34" s="198">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>2735259</v>
       </c>
-      <c r="F34" s="199">
+      <c r="F34" s="198">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>250534</v>
       </c>
-      <c r="G34" s="199">
+      <c r="G34" s="198">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>13930</v>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7315,45 +7327,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>3990</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>7297</v>
       </c>
-      <c r="E35" s="199">
+      <c r="E35" s="198">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>1498</v>
       </c>
-      <c r="F35" s="199">
+      <c r="F35" s="198">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>2853</v>
       </c>
-      <c r="G35" s="199">
+      <c r="G35" s="198">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>696</v>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7368,43 +7380,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>2868641</v>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7466,47 +7478,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.16361829121309177</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>1.9280987093897829E-3</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7515,7 +7527,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7535,47 +7547,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.5842954491724951</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.55491457230760188</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.56373982612619067</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.56638778894348862</v>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7584,49 +7596,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.41418931342879145</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.39871532034748752</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.2682542237658872</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.28671564736786559</v>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7637,47 +7649,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7688,47 +7700,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>5.9655559994967644E-4</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>9.1173366750378854E-4</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>1.5539134531893119E-3</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>2.1613384974143452E-4</v>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7739,47 +7751,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>5.9448182613756862E-4</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7788,49 +7800,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>1.4174935263694165E-2</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7841,47 +7853,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-1.385073529106798E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>4.5458373677406808E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>0.16645203665473277</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>0.14668042983890439</v>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7890,9 +7902,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7907,50 +7921,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>0.44019362596109335</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>0.40641869578030704</v>
       </c>
-      <c r="E48" s="272">
+      <c r="E48" s="269">
         <f t="shared" si="41"/>
         <v>0.51831915430946029</v>
       </c>
-      <c r="F48" s="272">
+      <c r="F48" s="269">
         <f t="shared" si="41"/>
         <v>1.0616373807247297</v>
       </c>
-      <c r="G48" s="272">
+      <c r="G48" s="269">
         <f t="shared" si="41"/>
         <v>1.1348681458049972</v>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7959,49 +7973,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.11203000770618693</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8010,49 +8024,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>9.7865479067953717E-2</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8061,49 +8075,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-1.0019710323355846</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>0.15765272743621306</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="e">
+      <c r="F51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8112,7 +8126,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8129,49 +8143,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.82375007799368372</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.79148453550900877</v>
       </c>
-      <c r="E53" s="156">
+      <c r="E53" s="155">
         <f t="shared" si="45"/>
         <v>0.80092421961656579</v>
       </c>
-      <c r="F53" s="156">
+      <c r="F53" s="155">
         <f t="shared" si="45"/>
         <v>0.15447921169017712</v>
       </c>
-      <c r="G53" s="156">
+      <c r="G53" s="155">
         <f t="shared" si="45"/>
         <v>1.0856457516747362E-2</v>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8181,47 +8195,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>2.369393217447572</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>-1.2060310581437341</v>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <f t="shared" si="46"/>
         <v>5.3942585015762292</v>
       </c>
-      <c r="F54" s="157">
+      <c r="F54" s="156">
         <f t="shared" si="46"/>
         <v>0.92325313885928983</v>
       </c>
-      <c r="G54" s="157">
+      <c r="G54" s="156">
         <f t="shared" si="46"/>
         <v>20.080950024740229</v>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8231,47 +8245,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.2450811226833175E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-4.3070319908169882E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>2.0056451512626985E-2</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>9.3355027935918562E-3</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>1.4735016114883846E-3</v>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8281,47 +8295,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8329,149 +8343,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>3.3811375773905486E-2</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>4.7279796654279974E-4</v>
       </c>
-      <c r="E58" s="274">
+      <c r="E58" s="271">
         <f t="shared" si="49"/>
         <v>3.0008475503162126E-2</v>
       </c>
-      <c r="F58" s="274">
+      <c r="F58" s="271">
         <f t="shared" si="49"/>
         <v>1.1545980515259548</v>
       </c>
-      <c r="G58" s="274">
+      <c r="G58" s="271">
         <f t="shared" si="49"/>
         <v>15.355674777089316</v>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>2.6645369863811157E-2</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>-7.1122018435571159E-3</v>
       </c>
-      <c r="E59" s="274">
+      <c r="E59" s="271">
         <f t="shared" si="50"/>
         <v>2.9418445869993756E-2</v>
       </c>
-      <c r="F59" s="274">
+      <c r="F59" s="271">
         <f t="shared" si="50"/>
         <v>1.143918992575127</v>
       </c>
-      <c r="G59" s="274">
+      <c r="G59" s="271">
         <f t="shared" si="50"/>
         <v>15.333081456853559</v>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9767,8 +9781,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9804,8 +9818,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>3027292</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9817,8 +9831,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>3023302</v>
       </c>
       <c r="K3" s="24"/>
@@ -9828,8 +9842,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>3990</v>
       </c>
       <c r="E4" s="37"/>
@@ -9860,13 +9874,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>1983621.5</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>0.34475382619185724</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9886,9 +9900,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>1.5892277532039187</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9916,11 +9930,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9963,7 +9977,7 @@
         <f>Inputs!C48</f>
         <v>2385307</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9991,7 +10005,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10019,7 +10033,7 @@
         <f>Inputs!C50</f>
         <v>180994</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10047,7 +10061,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10060,7 +10074,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10075,7 +10089,7 @@
         <f>Inputs!C52</f>
         <v>253051</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10102,7 +10116,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10124,7 +10138,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10146,7 +10160,7 @@
         <f>Inputs!C55</f>
         <v>158110</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10167,7 +10181,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10175,7 +10189,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10192,7 +10206,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10200,7 +10214,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10219,7 +10233,7 @@
         <f>Inputs!C58</f>
         <v>5912</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10240,7 +10254,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10405,7 +10419,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>611931</v>
       </c>
@@ -10434,7 +10448,7 @@
         <f>Inputs!C60</f>
         <v>279425</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10460,7 +10474,7 @@
         <f>Inputs!C61</f>
         <v>126127</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10487,7 +10501,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10514,7 +10528,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10530,7 +10544,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10544,7 +10558,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10571,7 +10585,7 @@
         <f>Inputs!C65</f>
         <v>1500</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10579,7 +10593,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10597,7 +10611,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10605,7 +10619,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10624,7 +10638,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10632,7 +10646,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10651,7 +10665,7 @@
         <f>Inputs!C68</f>
         <v>193915</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10672,7 +10686,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10693,7 +10707,7 @@
         <f>Inputs!C70</f>
         <v>9704</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10714,7 +10728,7 @@
         <f>Inputs!C71</f>
         <v>76124</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10735,7 +10749,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10881,8 +10895,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>30946</v>
       </c>
       <c r="J48" s="8"/>
@@ -10908,8 +10922,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>642877</v>
       </c>
       <c r="J49" s="87"/>
@@ -10932,9 +10946,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10952,13 +10966,13 @@
         <f>MAX(D4,0)</f>
         <v>3990</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>3990</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10979,7 +10993,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11079,7 +11093,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>2664732</v>
       </c>
@@ -11087,7 +11101,7 @@
         <f t="shared" si="2"/>
         <v>0.80562559386835164</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>2146776.3000000003</v>
       </c>
@@ -11118,11 +11132,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>33999</v>
@@ -11199,12 +11213,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>608878</v>
       </c>
@@ -11283,17 +11297,17 @@
         <f>Data!C6</f>
         <v>1615585</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>1615585</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>1615585</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11304,23 +11318,23 @@
         <f>Data!C8</f>
         <v>897327</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>897327</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>897327</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.55541924442229906</v>
       </c>
@@ -11330,48 +11344,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>718258</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>718258</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>718258</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>613104</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>613104</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>613104</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.37949349616392825</v>
       </c>
@@ -11385,54 +11399,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>2932</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>2932</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>2932</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.8148224946381651E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>102222</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>102222</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>102222</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>6.3272436919134561E-2</v>
       </c>
@@ -11446,55 +11460,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>1003</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>1003.0000000000001</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>1003.0000000000001</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>6.208277497005729E-4</v>
       </c>
@@ -11502,29 +11516,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>20662</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>20662</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>20662</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>1.2789175437999239E-2</v>
       </c>
@@ -11534,27 +11548,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>80557</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>80557</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>80557</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>4.9862433731434744E-2</v>
       </c>
@@ -11564,49 +11578,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>60417.75</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>60417.75</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>60417.75</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>3.7396825298576054E-2</v>
       </c>
@@ -11616,69 +11630,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5363423374420928E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>2.5611208836977761E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5363423374420928E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>2.5611208836977761E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5363423374420928E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>2.5611208836977761E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.1178</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>2.5996778479834153</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.1178</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>2.5996778479834153</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.1178</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>2.5996778479834153</v>
       </c>
@@ -11686,23 +11700,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5936729895506849E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>6.6580892273568185E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5936729895506849E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.6580892273568185E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5936729895506849E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>6.6580892273568185E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11724,7 +11738,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11747,27 +11761,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82878992344970315</v>
+        <v>0.82912458302001923</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82878992344970315</v>
+        <v>0.82912458302001923</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11775,27 +11789,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6159655833671596</v>
+        <v>2.6217696267795843</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6159655833671596</v>
+        <v>2.6217696267795843</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11809,25 +11823,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11838,21 +11852,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>549406.82652763533</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>549628.67315884097</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41205506838884298</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>0.41222145334144905</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41205506838884298</v>
-      </c>
-      <c r="I97" s="123">
+        <v>0.41222145334144905</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54801887262083049</v>
+        <v>0.548240158805963</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11860,18 +11874,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-4262.2509908676147</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-3.1966878435647308E-3</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11880,48 +11894,48 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2124941.5194419622</v>
-      </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+        <v>2123232.8534673848</v>
+      </c>
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3546500493129947</v>
-      </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+        <v>1.3535607748903609</v>
+      </c>
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5937059403682292</v>
-      </c>
-      <c r="I99" s="216"/>
+        <v>1.5924244410474835</v>
+      </c>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>2668599.2756353579</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>1.5997147674467853</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>1.7625855403882451</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>1.8820173734668062</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>2.0014492065453675</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>2.1374679120098818</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11933,25 +11947,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11962,27 +11976,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1734129.8546210993</v>
+        <v>1737977.3689091303</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1055076441324951</v>
-      </c>
-      <c r="E103" s="123">
+        <v>1.1079604341845162</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3005972283911709</v>
+        <v>1.3034828637464897</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3005972283911709</v>
-      </c>
-      <c r="H103" s="123">
+        <v>1.3034828637464897</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3005972283911709</v>
+        <v>1.3034828637464897</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7297489620103532</v>
+        <v>1.7335867564109897</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11994,25 +12008,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -12021,29 +12035,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>2044045.8582621904</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>1.3538376008156507</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>1.5330342020673675</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>1.5927501186066479</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>1.6524660351459286</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>1.9355273342104358</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12054,14 +12068,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7549AAD-2D1E-4347-8800-8C0C3F9B856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7188702-6A9F-4C1C-B282-34859DFF99AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6580892273568185E-2</v>
+        <v>6.6578814327401453E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4372,7 +4372,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.77925600405650919</v>
+        <v>0.77928032488653409</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.045404157424557</v>
+        <v>39.046622777021739</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6580892273568185E-2</v>
+        <v>6.6578814327401453E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4617,20 +4617,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3538376008156507</v>
+        <v>1.3537892695455453</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>2.2258564343420009</v>
+        <v>2.2257760286900026</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5927501186066479</v>
+        <v>1.5926932582888771</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9355273342104358</v>
+        <v>1.9354574162521763</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -9902,7 +9902,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.5892277532039187</v>
+        <v>1.5891781544435981</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11653,17 +11653,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5611208836977761E-2</v>
+        <v>2.5610409527875549E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5611208836977761E-2</v>
+        <v>2.5610409527875549E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5611208836977761E-2</v>
+        <v>2.5610409527875549E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11704,17 +11704,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6580892273568185E-2</v>
+        <v>6.6578814327401453E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6580892273568185E-2</v>
+        <v>6.6578814327401453E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6580892273568185E-2</v>
+        <v>6.6578814327401453E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11774,14 +11774,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82912458302001923</v>
+        <v>0.82909547580191489</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82912458302001923</v>
+        <v>0.82909547580191489</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11802,14 +11802,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6217696267795843</v>
+        <v>2.6216622648913956</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6217696267795843</v>
+        <v>2.6216622648913956</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11852,21 +11852,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>549628.67315884097</v>
+        <v>549609.37791420135</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41222145334144905</v>
+        <v>0.41220698190977834</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41222145334144905</v>
+        <v>0.41220698190977834</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.548240158805963</v>
+        <v>0.54822091230645886</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11876,14 +11876,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4262.2509908676147</v>
+        <v>-4262.1179687976837</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.1966878435647308E-3</v>
+        <v>-3.1965880770247531E-3</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11894,17 +11894,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2123232.8534673848</v>
+        <v>2123166.5887566209</v>
       </c>
       <c r="D99" s="211"/>
       <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3535607748903609</v>
+        <v>1.3535185311425295</v>
       </c>
       <c r="F99" s="211"/>
       <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5924244410474835</v>
+        <v>1.5923747425206229</v>
       </c>
       <c r="I99" s="213"/>
       <c r="K99" s="24"/>
@@ -11915,27 +11915,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>2668599.2756353579</v>
+        <v>2668513.8487020247</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5997147674467853</v>
+        <v>1.5996634760646802</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7625855403882451</v>
+        <v>1.7625289249752831</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.8820173734668062</v>
+        <v>1.8819570306643296</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0014492065453675</v>
+        <v>2.0013851363533761</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.1374679120098818</v>
+        <v>2.1373990667500573</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11976,27 +11976,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1737977.3689091303</v>
+        <v>1737906.198456147</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1079604341845162</v>
+        <v>1.1079150630264107</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3034828637464897</v>
+        <v>1.3034294859134246</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3034828637464897</v>
+        <v>1.3034294859134246</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3034828637464897</v>
+        <v>1.3034294859134246</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7335867564109897</v>
+        <v>1.7335157657542952</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12037,27 +12037,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2044045.8582621904</v>
+        <v>2043972.5294223395</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.3538376008156507</v>
+        <v>1.3537892695455453</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>1.5330342020673675</v>
+        <v>1.5329792054443538</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.5927501186066479</v>
+        <v>1.5926932582888771</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>1.6524660351459286</v>
+        <v>1.6524073111334003</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>1.9355273342104358</v>
+        <v>1.9354574162521763</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7188702-6A9F-4C1C-B282-34859DFF99AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6CC999E-9443-40CC-8AC4-84DED5932761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>1333333500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>1333333500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>242</v>
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>240</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>238</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,505 +3036,506 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>1615585</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>1446638</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>1769157</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>1702154</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>1383402</v>
       </c>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>897327</v>
+      </c>
+      <c r="D26" s="148">
+        <v>845264</v>
+      </c>
+      <c r="E26" s="148">
+        <v>981731</v>
+      </c>
+      <c r="F26" s="148">
+        <v>959572</v>
+      </c>
+      <c r="G26" s="148">
+        <v>783542</v>
+      </c>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>613104</v>
+      </c>
+      <c r="D27" s="148">
+        <v>599182</v>
+      </c>
+      <c r="E27" s="148">
+        <v>705390</v>
+      </c>
+      <c r="F27" s="148">
+        <v>456610</v>
+      </c>
+      <c r="G27" s="148">
+        <v>396643</v>
+      </c>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>897327</v>
-      </c>
-      <c r="D26" s="149">
-        <v>845264</v>
-      </c>
-      <c r="E26" s="149">
-        <v>981731</v>
-      </c>
-      <c r="F26" s="149">
-        <v>959572</v>
-      </c>
-      <c r="G26" s="149">
-        <v>783542</v>
-      </c>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
+        <v>1003</v>
+      </c>
+      <c r="D29" s="148">
+        <v>863</v>
+      </c>
+      <c r="E29" s="148">
+        <v>1613</v>
+      </c>
+      <c r="F29" s="148">
+        <v>2645</v>
+      </c>
+      <c r="G29" s="148">
+        <v>299</v>
+      </c>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>2199</v>
+      </c>
+      <c r="D30" s="148">
+        <v>645</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
+        <v>-169280</v>
+      </c>
+      <c r="D31" s="148">
+        <v>-50846</v>
+      </c>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>613104</v>
-      </c>
-      <c r="D27" s="149">
-        <v>599182</v>
-      </c>
-      <c r="E27" s="149">
-        <v>705390</v>
-      </c>
-      <c r="F27" s="149">
-        <v>456610</v>
-      </c>
-      <c r="G27" s="149">
-        <v>396643</v>
-      </c>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>35974</v>
+      </c>
+      <c r="D32" s="148">
+        <v>32106</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
-        <v>1003</v>
-      </c>
-      <c r="D29" s="149">
-        <v>863</v>
-      </c>
-      <c r="E29" s="149">
-        <v>1613</v>
-      </c>
-      <c r="F29" s="149">
-        <v>2645</v>
-      </c>
-      <c r="G29" s="149">
-        <v>299</v>
-      </c>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>2199</v>
-      </c>
-      <c r="D30" s="149">
-        <v>645</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
-        <v>-169280</v>
-      </c>
-      <c r="D31" s="149">
-        <v>-50846</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
-        <v>35974</v>
-      </c>
-      <c r="D32" s="149">
-        <v>32106</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>15312</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>11600</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
         <v>642877</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>734909</v>
       </c>
-      <c r="E37" s="149">
+      <c r="E37" s="148">
         <v>677999</v>
       </c>
-      <c r="F37" s="149">
+      <c r="F37" s="148">
         <v>1352795</v>
       </c>
-      <c r="G37" s="149">
+      <c r="G37" s="148">
         <v>1205068</v>
       </c>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>18682</v>
       </c>
-      <c r="E38" s="149">
+      <c r="E38" s="148">
         <v>61277</v>
       </c>
-      <c r="F38" s="149">
+      <c r="F38" s="148">
         <v>51229</v>
       </c>
-      <c r="G38" s="149">
+      <c r="G38" s="148">
         <v>23195</v>
       </c>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <v>6202</v>
       </c>
-      <c r="E39" s="149">
+      <c r="E39" s="148">
         <v>5517</v>
       </c>
-      <c r="F39" s="149">
+      <c r="F39" s="148">
         <v>301783</v>
       </c>
-      <c r="G39" s="149">
+      <c r="G39" s="148">
         <v>3225</v>
       </c>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <v>10412</v>
       </c>
-      <c r="E40" s="149">
+      <c r="E40" s="148">
         <v>9392</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="148">
         <v>5096</v>
       </c>
-      <c r="G40" s="149">
+      <c r="G40" s="148">
         <v>6880</v>
       </c>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>3027292</v>
+      </c>
+      <c r="D41" s="148">
+        <v>2824568</v>
+      </c>
+      <c r="E41" s="148">
+        <v>2735259</v>
+      </c>
+      <c r="F41" s="148">
+        <v>250534</v>
+      </c>
+      <c r="G41" s="148">
+        <v>13930</v>
+      </c>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>3027292</v>
-      </c>
-      <c r="D41" s="149">
-        <v>2824568</v>
-      </c>
-      <c r="E41" s="149">
-        <v>2735259</v>
-      </c>
-      <c r="F41" s="149">
-        <v>250534</v>
-      </c>
-      <c r="G41" s="149">
-        <v>13930</v>
-      </c>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>3990</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>7297</v>
       </c>
-      <c r="E42" s="149">
+      <c r="E42" s="148">
         <v>1498</v>
       </c>
-      <c r="F42" s="149">
+      <c r="F42" s="148">
         <v>2853</v>
       </c>
-      <c r="G42" s="149">
+      <c r="G42" s="148">
         <v>696</v>
       </c>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <v>2868641</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.1178</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6578814327401453E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>6.6564271180928267E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>2385307</v>
@@ -3548,11 +3543,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59">
         <v>0</v>
@@ -3560,11 +3555,11 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>180994</v>
@@ -3573,11 +3568,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>0</v>
@@ -3585,11 +3580,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>253051</v>
@@ -3597,11 +3592,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3610,11 +3605,11 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3622,11 +3617,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>158110</v>
@@ -3635,11 +3630,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -3648,13 +3643,13 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -3662,13 +3657,13 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59">
         <v>5912</v>
@@ -3677,24 +3672,24 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118">
         <v>0</v>
       </c>
-      <c r="D59" s="194">
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <v>279425</v>
@@ -3703,11 +3698,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <v>126127</v>
@@ -3716,11 +3711,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -3729,11 +3724,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3742,11 +3737,11 @@
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -3754,11 +3749,11 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>1500</v>
@@ -3766,13 +3761,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -3780,13 +3775,13 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -3795,13 +3790,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>193915</v>
@@ -3810,11 +3805,11 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -3823,11 +3818,11 @@
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>9704</v>
@@ -3835,11 +3830,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>76124</v>
@@ -3848,27 +3843,27 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>13416</v>
@@ -3876,33 +3871,33 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>611931</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>20583</v>
@@ -3910,77 +3905,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214">
+        <v>263</v>
+      </c>
+      <c r="C82" s="212">
         <v>30946</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214">
+        <v>264</v>
+      </c>
+      <c r="C83" s="212">
         <v>3023302</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3989,166 +3984,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>1615585</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>1615585</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>1615585</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>897327</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>897327</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>897327</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>613104</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>613104</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>613104</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>1003</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>1003.0000000000001</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>20662</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>20662</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>20662</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>2932</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>2932</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.1178</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.1178</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.1178</v>
       </c>
@@ -4161,32 +4156,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4245,13 +4240,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4262,82 +4257,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>6601.HK : 朝云集团</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="130">
         <v>1.89</v>
       </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
         <v>2520.0003149999998</v>
       </c>
-      <c r="H5" s="287"/>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4348,31 +4343,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4381,280 +4376,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>3.3811375773905486E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.82375007799368372</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.44019362596109335</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.77928032488653409</v>
+        <v>0.77945058421195645</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.046622777021739</v>
+        <v>39.055153791397096</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>2.5996778479834153</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6578814327401453E-2</v>
+        <v>6.6564271180928267E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3537892695455453</v>
-      </c>
-      <c r="D29" s="128">
+        <v>1.3534510201181278</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>2.2257760286900026</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>2.2252133062971082</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5926932582888771</v>
-      </c>
-      <c r="G29" s="286">
+        <v>1.5922953177860328</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9354574162521763</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>1.9349680924322681</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4662,9 +4657,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4672,17 +4667,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4690,26 +4685,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4717,9 +4712,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4732,16 +4727,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5693,10 +5688,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5722,59 +5717,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>102222</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5782,19 +5777,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5843,928 +5838,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1615585</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1446638</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>1769157</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>1702154</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>1383402</v>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.11678595474472542</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>-0.18230094898304672</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>3.9363653347464389E-2</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>0.2304116952266948</v>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>897327</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>845264</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>981731</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>959572</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>783542</v>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>718258</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>601374</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>787426</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>742582</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>599860</v>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>613104</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>599182</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>705390</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>456610</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>396643</v>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>2932</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>860</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>9.2075557257586215E-4</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>4.6370107344910601E-2</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.16800595010792208</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>0.14689656368864581</v>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>102222</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1332</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>82036</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>285972</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>203217</v>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>75.743243243243242</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.98376322590082399</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>-0.71313275425566136</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>0.40722478926467764</v>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-169280</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-50846</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>1003</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>863</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>1613</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>2645</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>299</v>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>2.2266856897037297E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>2.2193527337177648E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>35974</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>32106</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>9.4776814590380575E-3</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>8.0185920734834829E-3</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>15312</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>11600</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>80557</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-20037</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>80423</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>283327</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>202918</v>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-1.0388051468300985E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>3.4093780258055109E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>0.12483902749104958</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>0.11001032237917828</v>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>60417.75</v>
       </c>
@@ -6808,63 +6803,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230" t="str">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>-0.71614777271491947</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>0.3962635153116037</v>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6910,11 +6905,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6961,266 +6956,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>180994</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>158110</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>642877</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>734909</v>
       </c>
-      <c r="E30" s="198">
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>677999</v>
       </c>
-      <c r="F30" s="198">
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>1352795</v>
       </c>
-      <c r="G30" s="198">
+      <c r="G30" s="196">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>1205068</v>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>13416</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>6202</v>
       </c>
-      <c r="E31" s="198">
+      <c r="E31" s="196">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>5517</v>
       </c>
-      <c r="F31" s="198">
+      <c r="F31" s="196">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>301783</v>
       </c>
-      <c r="G31" s="198">
+      <c r="G31" s="196">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>3225</v>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>20583</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>10412</v>
       </c>
-      <c r="E32" s="198">
+      <c r="E32" s="196">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>9392</v>
       </c>
-      <c r="F32" s="198">
+      <c r="F32" s="196">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>5096</v>
       </c>
-      <c r="G32" s="198">
+      <c r="G32" s="196">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>6880</v>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7267,165 +7262,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>3027292</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>2824568</v>
       </c>
-      <c r="E34" s="198">
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>2735259</v>
       </c>
-      <c r="F34" s="198">
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>250534</v>
       </c>
-      <c r="G34" s="198">
+      <c r="G34" s="196">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>13930</v>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>3990</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>7297</v>
       </c>
-      <c r="E35" s="198">
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>1498</v>
       </c>
-      <c r="F35" s="198">
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>2853</v>
       </c>
-      <c r="G35" s="198">
+      <c r="G35" s="196">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>696</v>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>2868641</v>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7471,63 +7466,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.16361829121309177</v>
       </c>
-      <c r="D38" s="154">
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>1.9280987093897829E-3</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7540,372 +7535,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.5842954491724951</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.55491457230760188</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.56373982612619067</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.56638778894348862</v>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.41418931342879145</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.39871532034748752</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.2682542237658872</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.28671564736786559</v>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>5.9655559994967644E-4</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>9.1173366750378854E-4</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>1.5539134531893119E-3</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>2.1613384974143452E-4</v>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>5.9448182613756862E-4</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>1.4174935263694165E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-1.385073529106798E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>4.5458373677406808E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>0.16645203665473277</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>0.14668042983890439</v>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7917,216 +7912,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.44019362596109335</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>0.40641869578030704</v>
       </c>
-      <c r="E48" s="269">
+      <c r="E48" s="267">
         <f t="shared" si="41"/>
         <v>0.51831915430946029</v>
       </c>
-      <c r="F48" s="269">
+      <c r="F48" s="267">
         <f t="shared" si="41"/>
         <v>1.0616373807247297</v>
       </c>
-      <c r="G48" s="269">
+      <c r="G48" s="267">
         <f t="shared" si="41"/>
         <v>1.1348681458049972</v>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.11203000770618693</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>9.7865479067953717E-2</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-1.0019710323355846</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>0.15765272743621306</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="e">
+      <c r="F51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8142,350 +8137,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.82375007799368372</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.79148453550900877</v>
       </c>
-      <c r="E53" s="155">
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
         <v>0.80092421961656579</v>
       </c>
-      <c r="F53" s="155">
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
         <v>0.15447921169017712</v>
       </c>
-      <c r="G53" s="155">
+      <c r="G53" s="154">
         <f t="shared" si="45"/>
         <v>1.0856457516747362E-2</v>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>2.369393217447572</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>-1.2060310581437341</v>
       </c>
-      <c r="E54" s="156">
+      <c r="E54" s="155">
         <f t="shared" si="46"/>
         <v>5.3942585015762292</v>
       </c>
-      <c r="F54" s="156">
+      <c r="F54" s="155">
         <f t="shared" si="46"/>
         <v>0.92325313885928983</v>
       </c>
-      <c r="G54" s="156">
+      <c r="G54" s="155">
         <f t="shared" si="46"/>
         <v>20.080950024740229</v>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.2450811226833175E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-4.3070319908169882E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>2.0056451512626985E-2</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>9.3355027935918562E-3</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>1.4735016114883846E-3</v>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>5.2485238702202602E-3</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>1.7952642314176075E-2</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>3.1951645607358192E-2</v>
+      </c>
+      <c r="G56" s="151">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v>1.9027922933425648E-2</v>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>3.3811375773905486E-2</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>4.7279796654279974E-4</v>
       </c>
-      <c r="E58" s="271">
+      <c r="E58" s="269">
         <f t="shared" si="49"/>
         <v>3.0008475503162126E-2</v>
       </c>
-      <c r="F58" s="271">
+      <c r="F58" s="269">
         <f t="shared" si="49"/>
         <v>1.1545980515259548</v>
       </c>
-      <c r="G58" s="271">
+      <c r="G58" s="269">
         <f t="shared" si="49"/>
         <v>15.355674777089316</v>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>2.6645369863811157E-2</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>-7.1122018435571159E-3</v>
       </c>
-      <c r="E59" s="271">
+      <c r="E59" s="269">
         <f t="shared" si="50"/>
         <v>2.9418445869993756E-2</v>
       </c>
-      <c r="F59" s="271">
+      <c r="F59" s="269">
         <f t="shared" si="50"/>
         <v>1.143918992575127</v>
       </c>
-      <c r="G59" s="271">
+      <c r="G59" s="269">
         <f t="shared" si="50"/>
         <v>15.333081456853559</v>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9764,7 +9759,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9782,7 +9777,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9800,25 +9795,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>3027292</v>
       </c>
@@ -9826,12 +9821,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>3023302</v>
       </c>
@@ -9839,28 +9834,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>3990</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9873,7 +9868,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>1983621.5</v>
@@ -9882,16 +9877,16 @@
         <f>1-D6/D3</f>
         <v>0.34475382619185724</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>4.6073037646401307</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9899,297 +9894,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.5891781544435981</v>
+        <v>1.5888310222378725</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>4.1937751151682132</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>2385307</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>2146776.3000000003</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>13416</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>180994</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>108596.4</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>253051</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>126525.5</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>13416</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>158110</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>79055</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10200,21 +10195,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10227,45 +10222,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>5912</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>5320.8</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10273,17 +10268,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10293,19 +10288,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.87884184279240829</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>2255372.7000000002</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.91448586004636967</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10315,17 +10310,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.5</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>126525.5</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>5.1302288391314184E-2</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10334,7 +10329,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10344,17 +10339,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>79055</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>3.2054427042575155E-2</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10367,7 +10362,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10377,17 +10372,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>5320.8</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>2.1574245197411158E-3</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10414,12 +10409,12 @@
         <f>SUM(E24:E27)</f>
         <v>2466274</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>611931</v>
       </c>
@@ -10429,171 +10424,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>279425</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>126127</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>75676.2</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>20583</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>20583</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>1500</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10601,25 +10596,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10627,26 +10622,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10654,113 +10649,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>193915</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>19391.5</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>9704</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>485.20000000000005</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>76124</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>68511.600000000006</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10768,17 +10763,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10788,16 +10783,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.18660048526452833</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>75676.2</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10807,16 +10802,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.1</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>150</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10826,14 +10821,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.1</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>19391.5</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10846,7 +10841,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10856,14 +10851,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.80389616442186707</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>68996.800000000003</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10876,13 +10871,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>686795</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.23910264343799822</v>
       </c>
@@ -10890,12 +10885,12 @@
         <f>SUM(E30:E42)</f>
         <v>164214.5</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>30946</v>
       </c>
@@ -10906,63 +10901,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>3670169</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.71672135533813297</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>2630488.5</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>642877</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>3990</v>
       </c>
@@ -10970,45 +10965,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>3990</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11016,61 +11011,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11084,35 +11079,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>202351.7</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>2664732</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.80562559386835164</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>2146776.3000000003</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11126,29 +11121,29 @@
         <f>E61+E62</f>
         <v>2349128.0000000005</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>33999</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11162,9 +11157,9 @@
         <f>E63-E64</f>
         <v>2315129.0000000005</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11172,28 +11167,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11207,29 +11202,29 @@
         <f>E49-E63</f>
         <v>281360.49999999953</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>608878</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11243,29 +11238,29 @@
         <f>E68-E69</f>
         <v>-327517.50000000047</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11275,66 +11270,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>1615585</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>1615585</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>1615585</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>897327</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>897327</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>897327</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.55541924442229906</v>
       </c>
@@ -11342,50 +11337,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>718258</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>718258</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>718258</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>613104</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>613104</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.37949349616392825</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>613104</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.37949349616392825</v>
       </c>
@@ -11393,60 +11388,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>2932</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>2932</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>1.8148224946381651E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>2932</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>1.8148224946381651E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>102222</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>102222</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>6.3272436919134561E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>102222</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>6.3272436919134561E-2</v>
       </c>
@@ -11454,61 +11449,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>1003</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>1003.0000000000001</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>1003.0000000000001</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>6.208277497005729E-4</v>
       </c>
@@ -11516,59 +11511,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>20662</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>20662</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>1.2789175437999239E-2</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>20662</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>1.2789175437999239E-2</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>80557</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>80557</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>80557</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>4.9862433731434744E-2</v>
       </c>
@@ -11576,184 +11571,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>60417.75</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>60417.75</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>3.7396825298576054E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>60417.75</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>3.7396825298576054E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>4.5313306835836648E-2</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5610409527875549E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>2.5604815316852648E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5610409527875549E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>2.5604815316852648E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5610409527875549E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>2.5604815316852648E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.1178</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>2.5996778479834153</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.1178</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>2.5996778479834153</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.1178</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>2.5996778479834153</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6578814327401453E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>6.6564271180928267E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6578814327401453E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.6564271180928267E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6578814327401453E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>6.6564271180928267E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11761,55 +11756,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82909547580191489</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>0.82889176589467606</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82909547580191489</v>
+        <v>0.82889176589467606</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6216622648913956</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>2.6209109098283827</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6216622648913956</v>
+        <v>2.6209109098283827</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11819,123 +11814,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>549609.37791420135</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>549474.33812848292</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41220698190977834</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>0.41210570208314945</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41220698190977834</v>
-      </c>
-      <c r="I97" s="122">
+        <v>0.41210570208314945</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54822091230645886</v>
+        <v>0.54808621366866406</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-4261.1869728565216</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-3.1958898301561625E-3</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-4262.1179687976837</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.1965880770247531E-3</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2123166.5887566209</v>
-      </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+        <v>2122702.814761857</v>
+      </c>
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3535185311425295</v>
-      </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+        <v>1.3532228752578244</v>
+      </c>
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5923747425206229</v>
-      </c>
-      <c r="I99" s="213"/>
+        <v>1.5920269120680288</v>
+      </c>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>2668513.8487020247</v>
-      </c>
-      <c r="D100" s="109">
+        <v>2667915.9659174834</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5996634760646802</v>
-      </c>
-      <c r="E100" s="109">
+        <v>1.5993045000285318</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7625289249752831</v>
-      </c>
-      <c r="F100" s="109">
+        <v>1.7621326875108176</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>1.8819570306643296</v>
-      </c>
-      <c r="H100" s="109">
+        <v>1.8815347059159198</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0013851363533761</v>
-      </c>
-      <c r="I100" s="109">
+        <v>2.0009367243210221</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.1373990667500573</v>
+        <v>2.1369172359065365</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11945,58 +11940,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1737906.198456147</v>
-      </c>
-      <c r="D103" s="109">
+        <v>1737408.123384183</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1079150630264107</v>
-      </c>
-      <c r="E103" s="122">
+        <v>1.1075975402077241</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3034294859134246</v>
-      </c>
-      <c r="F103" s="109">
+        <v>1.3030559296561459</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.3034294859134246</v>
-      </c>
-      <c r="H103" s="122">
+        <v>1.3030559296561459</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3034294859134246</v>
-      </c>
-      <c r="I103" s="109">
+        <v>1.3030559296561459</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7335157657542952</v>
+        <v>1.7330189489579997</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12006,58 +12001,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2043972.5294223395</v>
-      </c>
-      <c r="D106" s="109">
+        <v>2043459.3335436941</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.3537892695455453</v>
-      </c>
-      <c r="E106" s="122">
+        <v>1.3534510201181278</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.5329792054443538</v>
-      </c>
-      <c r="F106" s="109">
+        <v>1.5325943085834819</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.5926932582888771</v>
-      </c>
-      <c r="H106" s="122">
+        <v>1.5922953177860328</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.6524073111334003</v>
-      </c>
-      <c r="I106" s="122">
+        <v>1.651996326988584</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.9354574162521763</v>
+        <v>1.9349680924322681</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12066,15 +12061,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6CC999E-9443-40CC-8AC4-84DED5932761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59AB7815-B631-409A-B624-856E586299F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,6 +2945,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3475,7 +3492,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6564271180928267E-2</v>
+        <v>6.6176879485448217E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3956,7 +3973,7 @@
         <v>230</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3966,11 +3983,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3984,10 +4001,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4209,8 +4226,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4223,8 +4243,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4267,60 +4287,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>2520.0003149999998</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>2533.33365</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4343,11 +4363,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4367,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4488,7 +4508,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>3.3811375773905486E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4500,20 +4520,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.82375007799368372</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>6.3272436919134561E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.44019362596109335</v>
       </c>
@@ -4522,26 +4542,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>6.3272436919134561E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.2139604313429488</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.77945058421195645</v>
+        <v>0.78401339656739844</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>6.208277497005729E-4</v>
       </c>
@@ -4550,7 +4570,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.055153791397096</v>
+        <v>39.28377808378022</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4582,7 +4602,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6564271180928267E-2</v>
+        <v>6.6176879485448217E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4601,10 +4621,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4612,22 +4632,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3534510201181278</v>
+        <v>1.3515620502160171</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>2.2252133062971082</v>
+        <v>2.2219319546163692</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5922953177860328</v>
-      </c>
-      <c r="G29" s="285">
+        <v>1.5900730002541374</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9349680924322681</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>1.9321147431446688</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5658,7 +5678,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7899,7 +7919,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9826,7 +9846,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>3023302</v>
       </c>
@@ -9897,7 +9917,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.5888310222378725</v>
+        <v>1.5879419097763419</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10873,7 +10893,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>686795</v>
       </c>
@@ -10890,7 +10910,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>30946</v>
       </c>
@@ -10999,11 +11019,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11014,11 +11034,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -11030,11 +11050,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11248,19 +11268,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11270,18 +11290,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11648,17 +11668,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5604815316852648E-2</v>
+        <v>2.5455800047218154E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5604815316852648E-2</v>
+        <v>2.5455800047218154E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5604815316852648E-2</v>
+        <v>2.5455800047218154E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11699,17 +11719,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6564271180928267E-2</v>
+        <v>6.6176879485448217E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6564271180928267E-2</v>
+        <v>6.6176879485448217E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6564271180928267E-2</v>
+        <v>6.6176879485448217E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11740,15 +11760,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11769,14 +11789,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82889176589467606</v>
+        <v>0.82782625931244891</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82889176589467606</v>
+        <v>0.82782625931244891</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11797,14 +11817,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6209109098283827</v>
+        <v>2.6146905964765912</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6209109098283827</v>
+        <v>2.6146905964765912</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11847,21 +11867,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>549474.33812848292</v>
+        <v>548768.01126153802</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41210570208314945</v>
+        <v>0.41157595699915889</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41210570208314945</v>
+        <v>0.41157595699915889</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54808621366866406</v>
+        <v>0.54738167117913705</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11871,14 +11891,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-4261.1869728565216</v>
+        <v>-4258.8024055957794</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.1958898301561625E-3</v>
+        <v>-3.1941014049341591E-3</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11889,17 +11909,17 @@
       </c>
       <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2122702.814761857</v>
+        <v>2121514.94676437</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3532228752578244</v>
+        <v>1.3524656095040846</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5920269120680288</v>
+        <v>1.591136011181276</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11910,27 +11930,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>2667915.9659174834</v>
+        <v>2666024.1556203123</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5993045000285318</v>
+        <v>1.5981552660463694</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7621326875108176</v>
+        <v>1.7608474650983093</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>1.8815347059159198</v>
+        <v>1.8801826659369052</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.0009367243210221</v>
+        <v>1.9995178667755009</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.1369172359065365</v>
+        <v>2.1353235809554789</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11971,27 +11991,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1737408.123384183</v>
+        <v>1733284.6627557157</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1075975402077241</v>
+        <v>1.1049688343856645</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3030559296561459</v>
+        <v>1.2999633345713699</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.3030559296561459</v>
+        <v>1.2999633345713699</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3030559296561459</v>
+        <v>1.2999633345713699</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7330189489579997</v>
+        <v>1.7289059053338587</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12032,27 +12052,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2043459.3335436941</v>
+        <v>2040540.7881806861</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.3534510201181278</v>
+        <v>1.3515620502160171</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.5325943085834819</v>
+        <v>1.5304053998348395</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.5922953177860328</v>
+        <v>1.5900730002541374</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.651996326988584</v>
+        <v>1.6497406006734354</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.9349680924322681</v>
+        <v>1.9321147431446688</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59AB7815-B631-409A-B624-856E586299F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1EBECB-9737-496A-8E9C-ADA99214D7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6176879485448217E-2</v>
+        <v>6.7492519749535462E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>2533.33365</v>
+        <v>2480.0003099999999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4387,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.78401339656739844</v>
+        <v>0.76873052379963569</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>39.28377808378022</v>
+        <v>38.51801440560839</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.6176879485448217E-2</v>
+        <v>6.7492519749535462E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4632,20 +4632,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3515620502160171</v>
+        <v>1.353255506213173</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>2.2219319546163692</v>
+        <v>2.2253131394509436</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.5900730002541374</v>
+        <v>1.5920653014272625</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.9321147431446688</v>
+        <v>1.9350549038703857</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9797,7 +9797,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9917,7 +9917,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.5879419097763419</v>
+        <v>1.5854162746903055</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11668,17 +11668,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5455800047218154E-2</v>
+        <v>2.5961878238832468E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5455800047218154E-2</v>
+        <v>2.5961878238832468E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5455800047218154E-2</v>
+        <v>2.5961878238832468E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11719,17 +11719,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6176879485448217E-2</v>
+        <v>6.7492519749535462E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6176879485448217E-2</v>
+        <v>6.7492519749535462E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6176879485448217E-2</v>
+        <v>6.7492519749535462E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11789,14 +11789,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82782625931244891</v>
+        <v>0.82855108455339577</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.82782625931244891</v>
+        <v>0.82855108455339577</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11817,14 +11817,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6146905964765912</v>
+        <v>2.6266784211520497</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6146905964765912</v>
+        <v>2.6266784211520497</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11867,21 +11867,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>548768.01126153802</v>
+        <v>549248.49965087348</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41157595699915889</v>
+        <v>0.41193632324611462</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41157595699915889</v>
+        <v>0.41193632324611462</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54738167117913705</v>
+        <v>0.54786094572163802</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11891,14 +11891,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-4258.8024055957794</v>
+        <v>-4252.0287442207336</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.1941014049341591E-3</v>
+        <v>-3.1890211595379052E-3</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11908,18 +11908,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>2121514.94676437</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>2118140.6592340074</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.3524656095040846</v>
+        <v>1.350314501472367</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.591136011181276</v>
+        <v>1.5886052958498436</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11930,27 +11930,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>2666024.1556203123</v>
+        <v>2663137.1301406603</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.5981552660463694</v>
+        <v>1.5964761206355298</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7608474650983093</v>
+        <v>1.7590618035589438</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>1.8801826659369052</v>
+        <v>1.8782072007476822</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.9995178667755009</v>
+        <v>1.9973525979364204</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.1353235809554789</v>
+        <v>2.1332772204119435</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11991,27 +11991,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1733284.6627557157</v>
+        <v>1741231.4204630239</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1049688343856645</v>
+        <v>1.1100348917908163</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.2999633345713699</v>
+        <v>1.3059234021068427</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.2999633345713699</v>
+        <v>1.3059234021068427</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.2999633345713699</v>
+        <v>1.3059234021068427</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7289059053338587</v>
+        <v>1.7368325873288282</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12052,27 +12052,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2040540.7881806861</v>
+        <v>2043323.7258592916</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.3515620502160171</v>
+        <v>1.353255506213173</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.5304053998348395</v>
+        <v>1.5324926028328933</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.5900730002541374</v>
+        <v>1.5920653014272625</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.6497406006734354</v>
+        <v>1.6516380000216315</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.9321147431446688</v>
+        <v>1.9350549038703857</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC49243-298D-4917-A808-2AA35EF910C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77CB1A2-9868-4BA7-954C-930FF75E7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.9626541685175014E-2</v>
+        <v>7.0011128713298773E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>2400.0003000000002</v>
+        <v>2386.6669649999999</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4600,7 +4600,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4731,7 +4731,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.74516928176923614</v>
+        <v>0.74107589769170856</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>37.337454727224269</v>
+        <v>37.132351609832007</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.9626541685175014E-2</v>
+        <v>7.0011128713298773E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4850,20 +4850,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.3333915717769755</v>
+        <v>1.1014124177336715</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.0228944265567432</v>
+        <v>1.8188152019856194</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.568695966796442</v>
+        <v>1.2957793149807899</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.7590386317884725</v>
+        <v>1.5815784365092345</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.5827854713151028</v>
+        <v>1.5826862737944611</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5859692006861281</v>
+        <v>1.5858698036324066</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.6736554707794895</v>
+        <v>1.7346813810211965</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>1.1004556395361158</v>
+        <v>0.86244322579884736</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11900,17 +11900,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6782757617135028E-2</v>
+        <v>2.6930694034880822E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6782757617135028E-2</v>
+        <v>2.6930694034880822E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6782757617135028E-2</v>
+        <v>2.6930694034880822E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11951,17 +11951,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9626541685175014E-2</v>
+        <v>7.0011128713298773E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9626541685175014E-2</v>
+        <v>7.0011128713298773E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9626541685175014E-2</v>
+        <v>7.0011128713298773E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12014,21 +12014,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.78773041593337401</v>
+        <v>0.83103701461398261</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.78773041593337401</v>
+        <v>0.83103701461398261</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12049,14 +12049,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.31503712469737</v>
+        <v>2.6532348971868682</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.31503712469737</v>
+        <v>2.6532348971868682</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12099,21 +12099,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>690594.13333304948</v>
+        <v>550896.42864580103</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.51794553525659526</v>
+        <v>0.41317226983781707</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.51794553525659526</v>
+        <v>0.41317226983781707</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.61459390140107217</v>
+        <v>0.54950471159121639</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12123,14 +12123,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-4244.9730253219604</v>
+        <v>-4244.7069811820984</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.1837293710252988E-3</v>
+        <v>-3.1835298379453442E-3</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12141,17 +12141,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>2114625.8652430377</v>
+        <v>2114493.3358215094</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>1.1004556395361158</v>
+        <v>0.86244322579884736</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>1.1004556395361158</v>
+        <v>0.86244322579884736</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12163,23 +12163,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.3729348286084329</v>
+        <v>1.0815671709289112</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.6152174454216857</v>
+        <v>1.2724319657987191</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>1.6152174454216857</v>
+        <v>1.2724319657987191</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>1.6152174454216857</v>
+        <v>1.2724319657987191</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.7118658115661627</v>
+        <v>1.4087644075521184</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12218,23 +12218,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2938483149455182</v>
+        <v>1.1212576645384318</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.522174488171198</v>
+        <v>1.319126664162861</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.522174488171198</v>
+        <v>1.319126664162861</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.522174488171198</v>
+        <v>1.319126664162861</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.8062114520107824</v>
+        <v>1.7543924654663505</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12273,23 +12273,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>1.3333915717769755</v>
+        <v>1.1014124177336715</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.568695966796442</v>
+        <v>1.2957793149807899</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.568695966796442</v>
+        <v>1.2957793149807899</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.568695966796442</v>
+        <v>1.2957793149807899</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.7590386317884725</v>
+        <v>1.5815784365092345</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77CB1A2-9868-4BA7-954C-930FF75E7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7782CF8-6A38-418A-B229-B14BEA847F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="288">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1049,6 +1049,9 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>HOLD</t>
   </si>
 </sst>
 </file>
@@ -2585,18 +2588,6 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2610,6 +2601,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2817,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -3060,6 +3063,9 @@
       </c>
       <c r="C4" s="66" t="s">
         <v>281</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4415,7 +4421,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4438,6 +4444,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4456,8 +4465,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4493,18 +4502,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="313" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v>HOLD</v>
+      </c>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4520,40 +4532,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>2386.6669649999999</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4576,11 +4588,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4648,10 +4660,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4698,7 +4710,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4839,10 +4851,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4850,22 +4862,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1014124177336715</v>
+        <v>1.1713844097991948</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>1.8188152019856194</v>
+        <v>1.9837321988883312</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.2957793149807899</v>
-      </c>
-      <c r="G29" s="312">
+        <v>1.3780993056461115</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.5815784365092345</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>1.7249845207724621</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5847,7 +5859,7 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5856,6 +5868,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5883,7 +5896,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11228,7 +11241,7 @@
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11239,11 +11252,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11255,11 +11268,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -12010,7 +12023,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -12021,14 +12034,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.83103701461398261</v>
+        <v>0.91001987137481555</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.83103701461398261</v>
+        <v>0.91001987137481555</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12049,14 +12062,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6532348971868682</v>
+        <v>2.9054018502252892</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6532348971868682</v>
+        <v>2.9054018502252892</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12099,21 +12112,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>550896.42864580103</v>
+        <v>603254.35368238541</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.41317226983781707</v>
+        <v>0.4524407087067005</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.41317226983781707</v>
+        <v>0.4524407087067005</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.54950471159121639</v>
+        <v>0.61791255527296729</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12163,23 +12176,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.0815671709289112</v>
+        <v>1.1149453439674621</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.2724319657987191</v>
+        <v>1.3117004046676026</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>1.2724319657987191</v>
+        <v>1.3117004046676026</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>1.2724319657987191</v>
+        <v>1.3117004046676026</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.4087644075521184</v>
+        <v>1.4771722512338692</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12218,23 +12231,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1212576645384318</v>
+        <v>1.2278234756309272</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.319126664162861</v>
+        <v>1.4444982066246204</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.319126664162861</v>
+        <v>1.4444982066246204</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.319126664162861</v>
+        <v>1.4444982066246204</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7543924654663505</v>
+        <v>1.9727967903110553</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12273,23 +12286,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>1.1014124177336715</v>
+        <v>1.1713844097991948</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.2957793149807899</v>
+        <v>1.3780993056461115</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.2957793149807899</v>
+        <v>1.3780993056461115</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.2957793149807899</v>
+        <v>1.3780993056461115</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.5815784365092345</v>
+        <v>1.7249845207724621</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7782CF8-6A38-418A-B229-B14BEA847F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3903D16F-D2E9-4C83-BE15-BECA147CCD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,18 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2601,18 +2613,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4502,21 +4502,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="313" t="str">
+      <c r="G2" s="317" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="313"/>
+      <c r="H2" s="317"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="311" t="str">
+      <c r="C3" s="315" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="316"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4532,40 +4532,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="313" t="str">
+      <c r="C4" s="317" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="314"/>
+      <c r="D4" s="318"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="317">
+      <c r="G4" s="321">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="317"/>
+      <c r="H4" s="321"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="315">
+      <c r="C5" s="319">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="316"/>
+      <c r="D5" s="320"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="320">
+      <c r="G5" s="313">
         <f>G3*G4/1000000</f>
         <v>2386.6669649999999</v>
       </c>
-      <c r="H5" s="320"/>
+      <c r="H5" s="313"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4588,11 +4588,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="321" t="str">
+      <c r="G6" s="314" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="321"/>
+      <c r="H6" s="314"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4743,7 +4743,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4851,10 +4851,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="318" t="s">
+      <c r="G28" s="311" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="318"/>
+      <c r="H28" s="311"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4862,22 +4862,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.1713844097991948</v>
+        <v>1.287808460531136</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>1.9837321988883312</v>
+        <v>2.0776328423621617</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.3780993056461115</v>
-      </c>
-      <c r="G29" s="319">
+        <v>1.5150687770954543</v>
+      </c>
+      <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.7249845207724621</v>
-      </c>
-      <c r="H29" s="319"/>
+        <v>1.8066372542279669</v>
+      </c>
+      <c r="H29" s="312"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5860,6 +5860,7 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
@@ -5868,7 +5869,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11241,7 +11241,7 @@
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="316"/>
+      <c r="E56" s="320"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11252,11 +11252,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="317">
+      <c r="D57" s="321">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="316"/>
+      <c r="E57" s="320"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11268,11 +11268,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="317">
+      <c r="D58" s="321">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="316"/>
+      <c r="E58" s="320"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.7346813810211965</v>
+        <v>1.7038418436511114</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.86244322579884736</v>
+        <v>0.97417710408474067</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -12027,21 +12027,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.91001987137481555</v>
+        <v>0.88615509952213556</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.91001987137481555</v>
+        <v>0.88615509952213556</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12062,14 +12062,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9054018502252892</v>
+        <v>2.7153005910499921</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9054018502252892</v>
+        <v>2.7153005910499921</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12112,21 +12112,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>603254.35368238541</v>
+        <v>675549.49011114042</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.4524407087067005</v>
+        <v>0.50666205425059851</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.4524407087067005</v>
+        <v>0.50666205425059851</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.61791255527296729</v>
+        <v>0.65014564259364083</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12159,12 +12159,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.86244322579884736</v>
+        <v>0.97417710408474067</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>0.86244322579884736</v>
+        <v>0.97417710408474067</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12176,23 +12176,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.1149453439674621</v>
+        <v>1.2560072842227847</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.3117004046676026</v>
+        <v>1.4776556284973938</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>1.3117004046676026</v>
+        <v>1.4776556284973938</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>1.3117004046676026</v>
+        <v>1.4776556284973938</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.4771722512338692</v>
+        <v>1.6211392168404362</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12231,23 +12231,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2278234756309272</v>
+        <v>1.3196096368394874</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4444982066246204</v>
+        <v>1.5524819256935147</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.4444982066246204</v>
+        <v>1.5524819256935147</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4444982066246204</v>
+        <v>1.5524819256935147</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9727967903110553</v>
+        <v>1.9921352916154975</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12286,23 +12286,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>1.1713844097991948</v>
+        <v>1.287808460531136</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.3780993056461115</v>
+        <v>1.5150687770954543</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.3780993056461115</v>
+        <v>1.5150687770954543</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.3780993056461115</v>
+        <v>1.5150687770954543</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.7249845207724621</v>
+        <v>1.8066372542279669</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15CEA9B4-E2BF-4F53-8AFB-173C46720641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03EE0665-7DCE-4A41-AF0F-938E7E839BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0008937295810689E-2</v>
+        <v>7.0840239048902132E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4530,27 +4530,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4560,7 +4560,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
@@ -4589,11 +4589,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>2386.6669649999999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>2360.0002949999998</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4616,11 +4616,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4640,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.74109909482545933</v>
+        <v>0.73240238537029201</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>37.133513925499614</v>
+        <v>36.697756570087464</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0008937295810689E-2</v>
+        <v>7.0840239048902132E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4879,10 +4879,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4890,22 +4890,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2950545612264879</v>
+        <v>1.2981323672516369</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.093056492263071</v>
+        <v>2.0983191117027826</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.523593601442927</v>
-      </c>
-      <c r="G29" s="313">
+        <v>1.527214549707808</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8200491237070184</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>1.8246253145241589</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5888,15 +5888,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10265,7 +10265,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.5826367341506604</v>
+        <v>1.58353625111972</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5858201643409771</v>
+        <v>1.5867214906636387</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.7037885117182925</v>
+        <v>1.7047568872430787</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11532,7 +11532,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.97414661137905767</v>
+        <v>0.97470028322830704</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12043,17 +12043,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6929851077554478E-2</v>
+        <v>2.7249622142164007E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6929851077554478E-2</v>
+        <v>2.7249622142164007E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6929851077554478E-2</v>
+        <v>2.7249622142164007E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12094,17 +12094,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0008937295810689E-2</v>
+        <v>7.0840239048902132E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0008937295810689E-2</v>
+        <v>7.0840239048902132E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0008937295810689E-2</v>
+        <v>7.0840239048902132E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12164,14 +12164,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.89350882291811806</v>
+        <v>0.89513071850377468</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.89350882291811806</v>
+        <v>0.89513071850377468</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12192,14 +12192,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7378199674302661</v>
+        <v>2.7478989831829903</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7378199674302661</v>
+        <v>2.7478989831829903</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12242,21 +12242,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>681155.51110368827</v>
+        <v>682391.94334505836</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.51086656946944498</v>
+        <v>0.51179389353455707</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.51086656946944498</v>
+        <v>0.51179389353455707</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.65675565858183649</v>
+        <v>0.65794780025541288</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12266,14 +12266,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-4244.5741176605225</v>
+        <v>-4246.9865894317627</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.183430190316618E-3</v>
+        <v>-3.185239543918879E-3</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12284,17 +12284,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>2114427.1500913301</v>
+        <v>2115628.9186717668</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.97414661137905767</v>
+        <v>0.97470028322830704</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>0.97414661137905767</v>
+        <v>0.97470028322830704</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12306,23 +12306,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.2595552880594583</v>
+        <v>1.2608125966361035</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4818297506581861</v>
+        <v>1.4833089372189452</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>1.4818297506581861</v>
+        <v>1.4833089372189452</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>1.4818297506581861</v>
+        <v>1.4833089372189452</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6277188397705775</v>
+        <v>1.6294628439398009</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12361,23 +12361,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3305538343935175</v>
+        <v>1.3354521378671702</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5653574522276676</v>
+        <v>1.5711201621966708</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.5653574522276676</v>
+        <v>1.5711201621966708</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5653574522276676</v>
+        <v>1.5711201621966708</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0123794076434591</v>
+        <v>2.0197877851085169</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12416,23 +12416,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>1.2950545612264879</v>
+        <v>1.2981323672516369</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.523593601442927</v>
+        <v>1.527214549707808</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.523593601442927</v>
+        <v>1.527214549707808</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.523593601442927</v>
+        <v>1.527214549707808</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>1.8200491237070184</v>
+        <v>1.8246253145241589</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03EE0665-7DCE-4A41-AF0F-938E7E839BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5006CD11-CAD7-4B1B-A41B-8814ED5A2F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.0840239048902132E-2</v>
+        <v>7.0643107522903412E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4530,21 +4530,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v>HOLD</v>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4560,40 +4560,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>朝云集团</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
         <v>2360.0002949999998</v>
       </c>
-      <c r="H5" s="315"/>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4616,11 +4616,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4640,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.73240238537029201</v>
+        <v>0.7344461742824141</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>36.697756570087464</v>
+        <v>36.800162664709589</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0840239048902132E-2</v>
+        <v>7.0643107522903412E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4879,10 +4879,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4890,22 +4890,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.2981323672516369</v>
+        <v>1.2939657500596673</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.0983191117027826</v>
+        <v>2.0915160259337378</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.527214549707808</v>
-      </c>
-      <c r="G29" s="314">
+        <v>1.5223126471290205</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.8246253145241589</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>1.8187095877684678</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5888,15 +5888,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10265,7 +10265,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.58353625111972</v>
+        <v>1.5791296465987772</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11371,7 +11371,7 @@
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11382,11 +11382,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11398,11 +11398,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.5867214906636387</v>
+        <v>1.5823060223791008</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.7047568872430787</v>
+        <v>1.700012954541114</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11532,7 +11532,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.97470028322830704</v>
+        <v>0.97198792430908387</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12043,17 +12043,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7249622142164007E-2</v>
+        <v>2.7173792928882192E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7249622142164007E-2</v>
+        <v>2.7173792928882192E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7249622142164007E-2</v>
+        <v>2.7173792928882192E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12094,17 +12094,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0840239048902132E-2</v>
+        <v>7.0643107522903412E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0840239048902132E-2</v>
+        <v>7.0643107522903412E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0840239048902132E-2</v>
+        <v>7.0643107522903412E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12164,14 +12164,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.89513071850377468</v>
+        <v>0.89237624143570826</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>0.89513071850377468</v>
+        <v>0.89237624143570826</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12192,14 +12192,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7478989831829903</v>
+        <v>2.7382349736807128</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7478989831829903</v>
+        <v>2.7382349736807128</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12242,21 +12242,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>682391.94334505836</v>
+        <v>680292.10147780681</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>0.51179389353455707</v>
+        <v>0.51021901233097855</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>0.51179389353455707</v>
+        <v>0.51021901233097855</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>0.65794780025541288</v>
+        <v>0.65592317738154082</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12266,14 +12266,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-4246.9865894317627</v>
+        <v>-4235.1682364940643</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-3.185239543918879E-3</v>
+        <v>-3.1763757803235757E-3</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12284,17 +12284,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>2115628.9186717668</v>
+        <v>2109741.6268898048</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.97470028322830704</v>
+        <v>0.97198792430908387</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>0.97470028322830704</v>
+        <v>0.97198792430908387</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12306,23 +12306,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.2608125966361035</v>
+        <v>1.257175976730778</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.4833089372189452</v>
+        <v>1.4790305608597389</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>1.4833089372189452</v>
+        <v>1.4790305608597389</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>1.4833089372189452</v>
+        <v>1.4790305608597389</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.6294628439398009</v>
+        <v>1.6247347259103011</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12361,23 +12361,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3354521378671702</v>
+        <v>1.3307555233885564</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5711201621966708</v>
+        <v>1.5655947333983018</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.5711201621966708</v>
+        <v>1.5655947333983018</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5711201621966708</v>
+        <v>1.5655947333983018</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0197877851085169</v>
+        <v>2.0126844496266343</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12416,23 +12416,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>1.2981323672516369</v>
+        <v>1.2939657500596673</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.527214549707808</v>
+        <v>1.5223126471290205</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.527214549707808</v>
+        <v>1.5223126471290205</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.527214549707808</v>
+        <v>1.5223126471290205</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>1.8246253145241589</v>
+        <v>1.8187095877684678</v>
       </c>
       <c r="K106" s="75"/>
     </row>
